--- a/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.616540637948106</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.4424069530543591</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1956562167451068</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03816929009376313</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008120802548982743</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,33 +451,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1482781064904657</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4329668030518334</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.042323569979885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.261551806949171</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.3745359204219767</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1677986700472047</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.03580741011160704</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008254533775509872</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -486,33 +498,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1341845622772908</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3777199481088047</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>7.975049632033205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.052549864861817</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.3344848227359591</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1511806240987283</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.03440874717490305</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008337882773574802</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -527,33 +545,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1258591756496941</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3451746174335781</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.337473073990225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.969327155465919</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.3185007406463569</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1445117522291071</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.03384856893423649</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008372212340439196</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -568,33 +592,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1225394383432459</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3322129766860655</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7.081386201982212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.955617483348931</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.3158650653922734</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1434101016696161</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0337560588815069</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008377936162562683</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -609,33 +639,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1219923445775564</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3300776610443492</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.039068895513935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.051419986141639</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.3342679776188788</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1510902915367041</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.03440115664048515</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008338344211999422</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -650,33 +686,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1258141210650834</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3449986497601287</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.334005188712922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.492082577943336</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.4186225251004601</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1859375541638713</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.03734215196983159</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008166690304960604</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -691,33 +733,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1433444026502357</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4136028204350382</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8.670178047298464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3.443736172796207</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.6007374050386431</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2591578158225616</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.04369201033484504</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007837084814257161</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -732,33 +780,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1808311173034696</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5614739643322224</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.46984751909943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4.224335409390051</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.7513446874445151</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3176704348923067</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.04901804357378037</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007594430133454381</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -773,33 +827,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2111218197498346</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6823690188354874</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.70188587098372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4.605411690506628</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.825499148445715</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3458220738151567</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0516781823303436</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007482543573633655</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -814,33 +874,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2257451234651739</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.7412390652621283</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.77450695247848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4.754359057739578</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.8546122941696126</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3567582144956845</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.05273024553960548</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007439808171111321</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -855,33 +921,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2314304268292489</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.7642209757376222</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.1909978629896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4.722057179107424</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.8482921756520341</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3543896315756712</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.05250147423643359</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.000744903110212492</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -896,33 +968,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2301989337557444</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7592383004681054</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>15.10080175283798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4.617566629140981</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.8278721348004865</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3467159060698322</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.05176376836556962</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007479036046631471</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -937,33 +1015,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2262097213607888</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.7431151157684823</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.80855148554298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4.554198485245138</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.815506286706011</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3420533026096422</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.05131809223184858</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007497362130360884</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -978,33 +1062,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2237863486665503</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7333334181956204</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.63095314867934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4.200026423627378</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.7466296846828584</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3158659452560926</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.04884981418275336</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007601699911814091</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1019,33 +1109,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2101852569126095</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6786102499577353</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.63310634356117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3.989985191696974</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.7059615693079309</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3002290221610338</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.04740306663594307</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007665226874843928</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1060,33 +1156,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2020745535826336</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6461159864217478</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.03695519361409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3.871554828133071</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.6830853854793872</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2913755012495614</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.04659249489243455</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007701635360063701</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1101,33 +1203,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1974870379898164</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6277813143983337</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.69930475879761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3.831840929076122</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.675422512697736</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2884004945915564</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.04632147388382579</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007713944245857363</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1142,33 +1250,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1959463924857943</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6216309878541111</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.58582647101105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4.012092270491848</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.7102360317034879</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3018787078229082</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.04755477631392457</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007658478810547361</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1183,33 +1297,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2029297536561927</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6495374417399233</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.09986067810954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>4.648123677887043</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.8338399185604146</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3489618746157817</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.05197913714853408</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007470234197429834</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1224,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2273771972794663</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7478309668530869</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.89409346253251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>5.091467849404467</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.9207897074928724</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3813769731279137</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.05513872255854801</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.000734497045397658</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1265,33 +1391,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2442335790653658</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8161755562578392</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>16.12820884421586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4.851951837236527</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.8737290715516224</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.363904016851464</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.0534235257407456</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007412090702125058</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1306,33 +1438,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2351461447609893</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.779270386186468</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.46308264791287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4.002090483104098</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.7083019918445359</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3011324641953479</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.04748612314729739</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007661529955056877</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1347,33 +1485,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2025428846455952</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6479895313611266</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.07140542040614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3.1743518625006</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.5490810417905436</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2386670097969414</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.04188433374770772</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007925939977554983</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1388,10 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.170278244921505</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.5196650447633928</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.68721083127991</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.616540637948106</v>
+        <v>1.197883701001615</v>
       </c>
       <c r="C2">
-        <v>0.4424069530543591</v>
+        <v>0.1658404083247547</v>
       </c>
       <c r="D2">
-        <v>0.1956562167451068</v>
+        <v>0.4006212643791116</v>
       </c>
       <c r="E2">
-        <v>0.03816929009376313</v>
+        <v>0.1348690725786597</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008120802548982743</v>
+        <v>1.567581876754787</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.002514085145378</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05139624823619826</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.26975113980933</v>
       </c>
       <c r="L2">
-        <v>0.1482781064904657</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4329668030518334</v>
+        <v>0.468656559174029</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.744313018622734</v>
       </c>
       <c r="O2">
-        <v>9.042323569979885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.261551806949171</v>
+        <v>1.046081795544296</v>
       </c>
       <c r="C3">
-        <v>0.3745359204219767</v>
+        <v>0.1435655551037343</v>
       </c>
       <c r="D3">
-        <v>0.1677986700472047</v>
+        <v>0.368054145603395</v>
       </c>
       <c r="E3">
-        <v>0.03580741011160704</v>
+        <v>0.1250835890781374</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008254533775509872</v>
+        <v>1.487397512379218</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9734834832713659</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04855862047317316</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.106403422363087</v>
       </c>
       <c r="L3">
-        <v>0.1341845622772908</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3777199481088047</v>
+        <v>0.4155418105434592</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.773706212951979</v>
       </c>
       <c r="O3">
-        <v>7.975049632033205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.052549864861817</v>
+        <v>0.9541503120031507</v>
       </c>
       <c r="C4">
-        <v>0.3344848227359591</v>
+        <v>0.1300624829126775</v>
       </c>
       <c r="D4">
-        <v>0.1511806240987283</v>
+        <v>0.3486061368198534</v>
       </c>
       <c r="E4">
-        <v>0.03440874717490305</v>
+        <v>0.1192621765704693</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008337882773574802</v>
+        <v>1.440678342949155</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9570555217844685</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0468874248360116</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.007455559546827</v>
       </c>
       <c r="L4">
-        <v>0.1258591756496941</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3451746174335781</v>
+        <v>0.3835166569966333</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.793583664227299</v>
       </c>
       <c r="O4">
-        <v>7.337473073990225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.969327155465919</v>
+        <v>0.9169729443995607</v>
       </c>
       <c r="C5">
-        <v>0.3185007406463569</v>
+        <v>0.124597866880265</v>
       </c>
       <c r="D5">
-        <v>0.1445117522291071</v>
+        <v>0.3408087979309045</v>
       </c>
       <c r="E5">
-        <v>0.03384856893423649</v>
+        <v>0.1169336695840606</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008372212340439196</v>
+        <v>1.422230349084913</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9506931833725787</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.04622316949065208</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9674338391756407</v>
       </c>
       <c r="L5">
-        <v>0.1225394383432459</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3322129766860655</v>
+        <v>0.3706000018597422</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.80212676329144</v>
       </c>
       <c r="O5">
-        <v>7.081386201982212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.955617483348931</v>
+        <v>0.9108159239086433</v>
       </c>
       <c r="C6">
-        <v>0.3158650653922734</v>
+        <v>0.1236926071059798</v>
       </c>
       <c r="D6">
-        <v>0.1434101016696161</v>
+        <v>0.3395214994031761</v>
       </c>
       <c r="E6">
-        <v>0.0337560588815069</v>
+        <v>0.1165495755135346</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008377936162562683</v>
+        <v>1.419201564730173</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9496562512088218</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.04611385212820096</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9608053193294097</v>
       </c>
       <c r="L6">
-        <v>0.1219923445775564</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3300776610443492</v>
+        <v>0.3684628969912751</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.803571604200044</v>
       </c>
       <c r="O6">
-        <v>7.039068895513935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.051419986141639</v>
+        <v>0.9536478141745022</v>
       </c>
       <c r="C7">
-        <v>0.3342679776188788</v>
+        <v>0.1299886385997127</v>
       </c>
       <c r="D7">
-        <v>0.1510902915367041</v>
+        <v>0.3485004741360029</v>
       </c>
       <c r="E7">
-        <v>0.03440115664048515</v>
+        <v>0.1192306004276098</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008338344211999422</v>
+        <v>1.440427209417862</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9569683963449194</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0468783999711917</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.006914645883825</v>
       </c>
       <c r="L7">
-        <v>0.1258141210650834</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3449986497601287</v>
+        <v>0.3833419341820274</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.793697108223782</v>
       </c>
       <c r="O7">
-        <v>7.334005188712922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.492082577943336</v>
+        <v>1.145255672231286</v>
       </c>
       <c r="C8">
-        <v>0.4186225251004601</v>
+        <v>0.1581204083119445</v>
       </c>
       <c r="D8">
-        <v>0.1859375541638713</v>
+        <v>0.3892720813197883</v>
       </c>
       <c r="E8">
-        <v>0.03734215196983159</v>
+        <v>0.1314542271127692</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008166690304960604</v>
+        <v>1.539386395619601</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.992202500464316</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.05040237936757563</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.213124860167255</v>
       </c>
       <c r="L8">
-        <v>0.1433444026502357</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4136028204350382</v>
+        <v>0.4502119968801708</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.754057231197208</v>
       </c>
       <c r="O8">
-        <v>8.670178047298464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.443736172796207</v>
+        <v>1.532850708312765</v>
       </c>
       <c r="C9">
-        <v>0.6007374050386431</v>
+        <v>0.2149466672320273</v>
       </c>
       <c r="D9">
-        <v>0.2591578158225616</v>
+        <v>0.4740658388558643</v>
       </c>
       <c r="E9">
-        <v>0.04369201033484504</v>
+        <v>0.1570662985696814</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007837084814257161</v>
+        <v>1.75543994487316</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.073314224097629</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05793172565821081</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.630102437689374</v>
       </c>
       <c r="L9">
-        <v>0.1808311173034696</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5614739643322224</v>
+        <v>0.5866870223489613</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.691684411883912</v>
       </c>
       <c r="O9">
-        <v>11.46984751909943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.224335409390051</v>
+        <v>1.827482225914792</v>
       </c>
       <c r="C10">
-        <v>0.7513446874445151</v>
+        <v>0.2581394528745022</v>
       </c>
       <c r="D10">
-        <v>0.3176704348923067</v>
+        <v>0.5400602730360333</v>
       </c>
       <c r="E10">
-        <v>0.04901804357378037</v>
+        <v>0.177125385436895</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007594430133454381</v>
+        <v>1.930690633953105</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.141652898512547</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.06392379518901237</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.947038666406343</v>
       </c>
       <c r="L10">
-        <v>0.2111218197498346</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6823690188354874</v>
+        <v>0.6912509113113643</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.656498945710041</v>
       </c>
       <c r="O10">
-        <v>13.70188587098372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.605411690506628</v>
+        <v>1.964311171978295</v>
       </c>
       <c r="C11">
-        <v>0.825499148445715</v>
+        <v>0.2782093464318507</v>
       </c>
       <c r="D11">
-        <v>0.3458220738151567</v>
+        <v>0.5710693514289744</v>
       </c>
       <c r="E11">
-        <v>0.0516781823303436</v>
+        <v>0.1865799701338844</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007482543573633655</v>
+        <v>2.014771543915458</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.174992412699424</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.06677020376221066</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.094236221760127</v>
       </c>
       <c r="L11">
-        <v>0.2257451234651739</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7412390652621283</v>
+        <v>0.74000899364313</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.643119426758929</v>
       </c>
       <c r="O11">
-        <v>14.77450695247848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.754359057739578</v>
+        <v>2.016587100089168</v>
       </c>
       <c r="C12">
-        <v>0.8546122941696126</v>
+        <v>0.2858797990611208</v>
       </c>
       <c r="D12">
-        <v>0.3567582144956845</v>
+        <v>0.5829706514104771</v>
       </c>
       <c r="E12">
-        <v>0.05273024553960548</v>
+        <v>0.1902130542531282</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007439808171111321</v>
+        <v>2.047308687786966</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.187973611937622</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.06786729965232752</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.150476580062161</v>
       </c>
       <c r="L12">
-        <v>0.2314304268292489</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7642209757376222</v>
+        <v>0.7586673392300582</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.638460344522429</v>
       </c>
       <c r="O12">
-        <v>15.1909978629896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.722057179107424</v>
+        <v>2.005307000888308</v>
       </c>
       <c r="C13">
-        <v>0.8482921756520341</v>
+        <v>0.2842245301785056</v>
       </c>
       <c r="D13">
-        <v>0.3543896315756712</v>
+        <v>0.5804001444318487</v>
       </c>
       <c r="E13">
-        <v>0.05250147423643359</v>
+        <v>0.1894281621907723</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000744903110212492</v>
+        <v>2.040269005692977</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.185161482765267</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.06763013349173974</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.138340872067602</v>
       </c>
       <c r="L13">
-        <v>0.2301989337557444</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7592383004681054</v>
+        <v>0.7546398731704542</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.639445133058004</v>
       </c>
       <c r="O13">
-        <v>15.10080175283798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.617566629140981</v>
+        <v>1.968602329540602</v>
       </c>
       <c r="C14">
-        <v>0.8278721348004865</v>
+        <v>0.2788389278430259</v>
       </c>
       <c r="D14">
-        <v>0.3467159060698322</v>
+        <v>0.5720451932742208</v>
       </c>
       <c r="E14">
-        <v>0.05176376836556962</v>
+        <v>0.1868777741173773</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007479036046631471</v>
+        <v>2.01743398410926</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.176053046644626</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.06686006579607806</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.098852734993443</v>
       </c>
       <c r="L14">
-        <v>0.2262097213607888</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7431151157684823</v>
+        <v>0.7415399822801305</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.642727773976418</v>
       </c>
       <c r="O14">
-        <v>14.80855148554298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.554198485245138</v>
+        <v>1.946181651191665</v>
       </c>
       <c r="C15">
-        <v>0.815506286706011</v>
+        <v>0.2755495711257652</v>
       </c>
       <c r="D15">
-        <v>0.3420533026096422</v>
+        <v>0.5669487554010288</v>
       </c>
       <c r="E15">
-        <v>0.05131809223184858</v>
+        <v>0.185322639465447</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007497362130360884</v>
+        <v>2.00353993405443</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.170521278515565</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.06639093952999531</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.074732253962821</v>
       </c>
       <c r="L15">
-        <v>0.2237863486665503</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7333334181956204</v>
+        <v>0.7335420124905454</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.644792483724004</v>
       </c>
       <c r="O15">
-        <v>14.63095314867934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.200026423627378</v>
+        <v>1.818601398146399</v>
       </c>
       <c r="C16">
-        <v>0.7466296846828584</v>
+        <v>0.2568371335980544</v>
       </c>
       <c r="D16">
-        <v>0.3158659452560926</v>
+        <v>0.5380550331454401</v>
       </c>
       <c r="E16">
-        <v>0.04884981418275336</v>
+        <v>0.1765145917730067</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007601699911814091</v>
+        <v>1.925289345491279</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.139522096293035</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.06374035894157259</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.937485203032651</v>
       </c>
       <c r="L16">
-        <v>0.2101852569126095</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6786102499577353</v>
+        <v>0.6880903786042367</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.657428657102002</v>
       </c>
       <c r="O16">
-        <v>13.63310634356117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.989985191696974</v>
+        <v>1.741092435787152</v>
       </c>
       <c r="C17">
-        <v>0.7059615693079309</v>
+        <v>0.2454722475613664</v>
       </c>
       <c r="D17">
-        <v>0.3002290221610338</v>
+        <v>0.5205941274582244</v>
       </c>
       <c r="E17">
-        <v>0.04740306663594307</v>
+        <v>0.1711992678495093</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007665226874843928</v>
+        <v>1.878449663839689</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.121103949528163</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.06214648093748565</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.854107005419507</v>
       </c>
       <c r="L17">
-        <v>0.2020745535826336</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6461159864217478</v>
+        <v>0.6605283668874549</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.665873502177206</v>
       </c>
       <c r="O17">
-        <v>13.03695519361409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.871554828133071</v>
+        <v>1.696770974134154</v>
       </c>
       <c r="C18">
-        <v>0.6830853854793872</v>
+        <v>0.2389744724341796</v>
       </c>
       <c r="D18">
-        <v>0.2913755012495614</v>
+        <v>0.510642964283079</v>
       </c>
       <c r="E18">
-        <v>0.04659249489243455</v>
+        <v>0.1681727026075706</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007701635360063701</v>
+        <v>1.851914329295198</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.110720156786243</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.06124095147595199</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.806430213781056</v>
       </c>
       <c r="L18">
-        <v>0.1974870379898164</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6277813143983337</v>
+        <v>0.6447860421171185</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.670976023969047</v>
       </c>
       <c r="O18">
-        <v>12.69930475879761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.831840929076122</v>
+        <v>1.681807371006244</v>
       </c>
       <c r="C19">
-        <v>0.675422512697736</v>
+        <v>0.2367808532728191</v>
       </c>
       <c r="D19">
-        <v>0.2884004945915564</v>
+        <v>0.507288968012432</v>
       </c>
       <c r="E19">
-        <v>0.04632147388382579</v>
+        <v>0.167153069647668</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007713944245857363</v>
+        <v>1.842997540380765</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.107239486370418</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.06093622861316916</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.790333898414701</v>
       </c>
       <c r="L19">
-        <v>0.1959463924857943</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6216309878541111</v>
+        <v>0.6394742837137883</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.672744917033071</v>
       </c>
       <c r="O19">
-        <v>12.58582647101105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.012092270491848</v>
+        <v>1.749316114363381</v>
       </c>
       <c r="C20">
-        <v>0.7102360317034879</v>
+        <v>0.2466779539572173</v>
       </c>
       <c r="D20">
-        <v>0.3018787078229082</v>
+        <v>0.5224432442098248</v>
       </c>
       <c r="E20">
-        <v>0.04755477631392457</v>
+        <v>0.1717618813402098</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007658478810547361</v>
+        <v>1.883393358034709</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.123042650519153</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.06231497696732191</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.862953310304874</v>
       </c>
       <c r="L20">
-        <v>0.2029297536561927</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6495374417399233</v>
+        <v>0.6634507796171647</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.664948943408731</v>
       </c>
       <c r="O20">
-        <v>13.09986067810954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.648123677887043</v>
+        <v>1.979370348070404</v>
       </c>
       <c r="C21">
-        <v>0.8338399185604146</v>
+        <v>0.2804188150965103</v>
       </c>
       <c r="D21">
-        <v>0.3489618746157817</v>
+        <v>0.5744947923159316</v>
       </c>
       <c r="E21">
-        <v>0.05197913714853408</v>
+        <v>0.1876254048749999</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007470234197429834</v>
+        <v>2.024121653412635</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.178718471983956</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.06708571570817412</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.110437239610548</v>
       </c>
       <c r="L21">
-        <v>0.2273771972794663</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7478309668530869</v>
+        <v>0.7453822552508527</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.641752272296614</v>
       </c>
       <c r="O21">
-        <v>14.89409346253251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.091467849404467</v>
+        <v>2.132447462623645</v>
       </c>
       <c r="C22">
-        <v>0.9207897074928724</v>
+        <v>0.302886208499757</v>
       </c>
       <c r="D22">
-        <v>0.3813769731279137</v>
+        <v>0.6094483079154998</v>
       </c>
       <c r="E22">
-        <v>0.05513872255854801</v>
+        <v>0.1983040386728945</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000734497045397658</v>
+        <v>2.120199571656457</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.217199802422101</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07031672720777493</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.275130883463646</v>
       </c>
       <c r="L22">
-        <v>0.2442335790653658</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8161755562578392</v>
+        <v>0.8000767530303392</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.628982924763648</v>
       </c>
       <c r="O22">
-        <v>16.12820884421586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.851951837236527</v>
+        <v>2.050477024065628</v>
       </c>
       <c r="C23">
-        <v>0.8737290715516224</v>
+        <v>0.2908533668476139</v>
       </c>
       <c r="D23">
-        <v>0.363904016851464</v>
+        <v>0.5907014395203589</v>
       </c>
       <c r="E23">
-        <v>0.0534235257407456</v>
+        <v>0.1925742620708135</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007412090702125058</v>
+        <v>2.06852019626217</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.196458408938184</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.06858125858426689</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.186937668748953</v>
       </c>
       <c r="L23">
-        <v>0.2351461447609893</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.779270386186468</v>
+        <v>0.7707719226144008</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.635568738716614</v>
       </c>
       <c r="O23">
-        <v>15.46308264791287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.002090483104098</v>
+        <v>1.745597447776476</v>
       </c>
       <c r="C24">
-        <v>0.7083019918445359</v>
+        <v>0.2461327425417323</v>
       </c>
       <c r="D24">
-        <v>0.3011324641953479</v>
+        <v>0.5216069877173481</v>
       </c>
       <c r="E24">
-        <v>0.04748612314729739</v>
+        <v>0.1715074329686033</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007661529955056877</v>
+        <v>1.881157093730081</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.122165527542563</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.06223876637462666</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.858953095725866</v>
       </c>
       <c r="L24">
-        <v>0.2025428846455952</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6479895313611266</v>
+        <v>0.6621292363599025</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.665366167833653</v>
       </c>
       <c r="O24">
-        <v>13.07140542040614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.1743518625006</v>
+        <v>1.426468221384994</v>
       </c>
       <c r="C25">
-        <v>0.5490810417905436</v>
+        <v>0.1993538719887198</v>
       </c>
       <c r="D25">
-        <v>0.2386670097969414</v>
+        <v>0.4505355518107024</v>
       </c>
       <c r="E25">
-        <v>0.04188433374770772</v>
+        <v>0.1499381734023153</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007925939977554983</v>
+        <v>1.694332713836474</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.049945809654645</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.05582045699873817</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.515665720413466</v>
       </c>
       <c r="L25">
-        <v>0.170278244921505</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5196650447633928</v>
+        <v>0.5490931283531069</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.706788835657676</v>
       </c>
       <c r="O25">
-        <v>10.68721083127991</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.197883701001615</v>
+        <v>0.8248090811753457</v>
       </c>
       <c r="C2">
-        <v>0.1658404083247547</v>
+        <v>0.09222904531060294</v>
       </c>
       <c r="D2">
-        <v>0.4006212643791116</v>
+        <v>0.6023143795840156</v>
       </c>
       <c r="E2">
-        <v>0.1348690725786597</v>
+        <v>0.2210701825694592</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.567581876754787</v>
+        <v>2.24596308711395</v>
       </c>
       <c r="H2">
-        <v>1.002514085145378</v>
+        <v>1.851590425611818</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05139624823619826</v>
+        <v>0.09727428764839274</v>
       </c>
       <c r="K2">
-        <v>1.26975113980933</v>
+        <v>0.8390136468571825</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.468656559174029</v>
+        <v>0.4630868607519787</v>
       </c>
       <c r="N2">
-        <v>1.744313018622734</v>
+        <v>3.14279530747082</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.046081795544296</v>
+        <v>0.7888906297424683</v>
       </c>
       <c r="C3">
-        <v>0.1435655551037343</v>
+        <v>0.08692505512055959</v>
       </c>
       <c r="D3">
-        <v>0.368054145603395</v>
+        <v>0.5974294126951918</v>
       </c>
       <c r="E3">
-        <v>0.1250835890781374</v>
+        <v>0.219823925188237</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.487397512379218</v>
+        <v>2.235001473922424</v>
       </c>
       <c r="H3">
-        <v>0.9734834832713659</v>
+        <v>1.852022955089581</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04855862047317316</v>
+        <v>0.09708042309165421</v>
       </c>
       <c r="K3">
-        <v>1.106403422363087</v>
+        <v>0.8002981807567267</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4155418105434592</v>
+        <v>0.4520514118177417</v>
       </c>
       <c r="N3">
-        <v>1.773706212951979</v>
+        <v>3.156759161169077</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9541503120031507</v>
+        <v>0.7673202049531653</v>
       </c>
       <c r="C4">
-        <v>0.1300624829126775</v>
+        <v>0.08372375661473086</v>
       </c>
       <c r="D4">
-        <v>0.3486061368198534</v>
+        <v>0.5947091942661018</v>
       </c>
       <c r="E4">
-        <v>0.1192621765704693</v>
+        <v>0.2191561229042556</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.440678342949155</v>
+        <v>2.229273739233989</v>
       </c>
       <c r="H4">
-        <v>0.9570555217844685</v>
+        <v>1.852960293360496</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0468874248360116</v>
+        <v>0.0969999517352349</v>
       </c>
       <c r="K4">
-        <v>1.007455559546827</v>
+        <v>0.7770224838922672</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3835166569966333</v>
+        <v>0.4455331783601011</v>
       </c>
       <c r="N4">
-        <v>1.793583664227299</v>
+        <v>3.1661087164007</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9169729443995607</v>
+        <v>0.7586517362495897</v>
       </c>
       <c r="C5">
-        <v>0.124597866880265</v>
+        <v>0.08243309940745291</v>
       </c>
       <c r="D5">
-        <v>0.3408087979309045</v>
+        <v>0.5936709262928872</v>
       </c>
       <c r="E5">
-        <v>0.1169336695840606</v>
+        <v>0.2189084952945279</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.422230349084913</v>
+        <v>2.227191559659417</v>
       </c>
       <c r="H5">
-        <v>0.9506931833725787</v>
+        <v>1.853511218592416</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04622316949065208</v>
+        <v>0.09697686078394341</v>
       </c>
       <c r="K5">
-        <v>0.9674338391756407</v>
+        <v>0.7676621016074705</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3706000018597422</v>
+        <v>0.4429417314888369</v>
       </c>
       <c r="N5">
-        <v>1.80212676329144</v>
+        <v>3.170113684542102</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9108159239086433</v>
+        <v>0.7572196924949992</v>
       </c>
       <c r="C6">
-        <v>0.1236926071059798</v>
+        <v>0.08221962542366157</v>
       </c>
       <c r="D6">
-        <v>0.3395214994031761</v>
+        <v>0.5935027665145611</v>
       </c>
       <c r="E6">
-        <v>0.1165495755135346</v>
+        <v>0.2188688575220574</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.419201564730173</v>
+        <v>2.226861024053377</v>
       </c>
       <c r="H6">
-        <v>0.9496562512088218</v>
+        <v>1.853612904622949</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04611385212820096</v>
+        <v>0.09697361266424664</v>
       </c>
       <c r="K6">
-        <v>0.9608053193294097</v>
+        <v>0.7661153459194168</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3684628969912751</v>
+        <v>0.4425153371788468</v>
       </c>
       <c r="N6">
-        <v>1.803571604200044</v>
+        <v>3.170790477830892</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9536478141745022</v>
+        <v>0.7672028063269636</v>
       </c>
       <c r="C7">
-        <v>0.1299886385997127</v>
+        <v>0.08370629412242181</v>
       </c>
       <c r="D7">
-        <v>0.3485004741360029</v>
+        <v>0.5946949073506431</v>
       </c>
       <c r="E7">
-        <v>0.1192306004276098</v>
+        <v>0.2191526840634594</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.440427209417862</v>
+        <v>2.229244638531256</v>
       </c>
       <c r="H7">
-        <v>0.9569683963449194</v>
+        <v>1.852967039215685</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0468783999711917</v>
+        <v>0.09699960103359118</v>
       </c>
       <c r="K7">
-        <v>1.006914645883825</v>
+        <v>0.7768957417956415</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3833419341820274</v>
+        <v>0.4454979668613248</v>
       </c>
       <c r="N7">
-        <v>1.793697108223782</v>
+        <v>3.166161939617325</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.145255672231286</v>
+        <v>0.8123240251895822</v>
       </c>
       <c r="C8">
-        <v>0.1581204083119445</v>
+        <v>0.09038871909768886</v>
       </c>
       <c r="D8">
-        <v>0.3892720813197883</v>
+        <v>0.6005721236624879</v>
       </c>
       <c r="E8">
-        <v>0.1314542271127692</v>
+        <v>0.2206202640341921</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.539386395619601</v>
+        <v>2.241975257125063</v>
       </c>
       <c r="H8">
-        <v>0.992202500464316</v>
+        <v>1.851600152045535</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05040237936757563</v>
+        <v>0.09719944222349142</v>
       </c>
       <c r="K8">
-        <v>1.213124860167255</v>
+        <v>0.8255616391593037</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4502119968801708</v>
+        <v>0.4592283825195693</v>
       </c>
       <c r="N8">
-        <v>1.754057231197208</v>
+        <v>3.147448984695117</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.532850708312765</v>
+        <v>0.904648414329813</v>
       </c>
       <c r="C9">
-        <v>0.2149466672320273</v>
+        <v>0.1039342887381878</v>
       </c>
       <c r="D9">
-        <v>0.4740658388558643</v>
+        <v>0.6143118865900306</v>
       </c>
       <c r="E9">
-        <v>0.1570662985696814</v>
+        <v>0.2242708501548769</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.75543994487316</v>
+        <v>2.274910492132193</v>
       </c>
       <c r="H9">
-        <v>1.073314224097629</v>
+        <v>1.854250203133745</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05793172565821081</v>
+        <v>0.09789721374634297</v>
       </c>
       <c r="K9">
-        <v>1.630102437689374</v>
+        <v>0.9249356161263051</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5866870223489613</v>
+        <v>0.4881988294656523</v>
       </c>
       <c r="N9">
-        <v>1.691684411883912</v>
+        <v>3.116912788947857</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.827482225914792</v>
+        <v>0.9748357038790516</v>
       </c>
       <c r="C10">
-        <v>0.2581394528745022</v>
+        <v>0.1141592267229612</v>
       </c>
       <c r="D10">
-        <v>0.5400602730360333</v>
+        <v>0.6257578509213033</v>
       </c>
       <c r="E10">
-        <v>0.177125385436895</v>
+        <v>0.2274243310565325</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.930690633953105</v>
+        <v>2.303992460288754</v>
       </c>
       <c r="H10">
-        <v>1.141652898512547</v>
+        <v>1.859449957115402</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06392379518901237</v>
+        <v>0.0985964100751815</v>
       </c>
       <c r="K10">
-        <v>1.947038666406343</v>
+        <v>1.000366170190716</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6912509113113643</v>
+        <v>0.5107351840836856</v>
       </c>
       <c r="N10">
-        <v>1.656498945710041</v>
+        <v>3.098240546544105</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.964311171978295</v>
+        <v>1.007281128661219</v>
       </c>
       <c r="C11">
-        <v>0.2782093464318507</v>
+        <v>0.1188710298177114</v>
       </c>
       <c r="D11">
-        <v>0.5710693514289744</v>
+        <v>0.6312587898213167</v>
       </c>
       <c r="E11">
-        <v>0.1865799701338844</v>
+        <v>0.2289614167843013</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.014771543915458</v>
+        <v>2.318289131044395</v>
       </c>
       <c r="H11">
-        <v>1.174992412699424</v>
+        <v>1.862522679469919</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06677020376221066</v>
+        <v>0.09895502998585215</v>
       </c>
       <c r="K11">
-        <v>2.094236221760127</v>
+        <v>1.035211651675269</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.74000899364313</v>
+        <v>0.5212606592985622</v>
       </c>
       <c r="N11">
-        <v>1.643119426758929</v>
+        <v>3.090564834501862</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.016587100089168</v>
+        <v>1.019641817419995</v>
       </c>
       <c r="C12">
-        <v>0.2858797990611208</v>
+        <v>0.1206640080509942</v>
       </c>
       <c r="D12">
-        <v>0.5829706514104771</v>
+        <v>0.6333841438814716</v>
       </c>
       <c r="E12">
-        <v>0.1902130542531282</v>
+        <v>0.2295582172367361</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.047308687786966</v>
+        <v>2.323856742591659</v>
       </c>
       <c r="H12">
-        <v>1.187973611937622</v>
+        <v>1.863787989451055</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06786729965232752</v>
+        <v>0.09909666079370538</v>
       </c>
       <c r="K12">
-        <v>2.150476580062161</v>
+        <v>1.048483378021899</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7586673392300582</v>
+        <v>0.5252857672907538</v>
       </c>
       <c r="N12">
-        <v>1.638460344522429</v>
+        <v>3.087776082418458</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.005307000888308</v>
+        <v>1.016976417153046</v>
       </c>
       <c r="C13">
-        <v>0.2842245301785056</v>
+        <v>0.1202774697480606</v>
       </c>
       <c r="D13">
-        <v>0.5804001444318487</v>
+        <v>0.6329245313640968</v>
       </c>
       <c r="E13">
-        <v>0.1894281621907723</v>
+        <v>0.2294290301511595</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.040269005692977</v>
+        <v>2.322650813599381</v>
       </c>
       <c r="H13">
-        <v>1.185161482765267</v>
+        <v>1.863510957119985</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06763013349173974</v>
+        <v>0.09906589883981098</v>
       </c>
       <c r="K13">
-        <v>2.138340872067602</v>
+        <v>1.0456216713863</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7546398731704542</v>
+        <v>0.5244171386464274</v>
       </c>
       <c r="N13">
-        <v>1.639445133058004</v>
+        <v>3.08837144453112</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.968602329540602</v>
+        <v>1.008296560743929</v>
       </c>
       <c r="C14">
-        <v>0.2788389278430259</v>
+        <v>0.1190183642594889</v>
       </c>
       <c r="D14">
-        <v>0.5720451932742208</v>
+        <v>0.6314327970054308</v>
       </c>
       <c r="E14">
-        <v>0.1868777741173773</v>
+        <v>0.2290102205561269</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.01743398410926</v>
+        <v>2.318744098115644</v>
       </c>
       <c r="H14">
-        <v>1.176053046644626</v>
+        <v>1.862624738179733</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06686006579607806</v>
+        <v>0.09896656522251135</v>
       </c>
       <c r="K14">
-        <v>2.098852734993443</v>
+        <v>1.0363019912254</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7415399822801305</v>
+        <v>0.5215910189414572</v>
       </c>
       <c r="N14">
-        <v>1.642727773976418</v>
+        <v>3.090333038721212</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.946181651191665</v>
+        <v>1.002989575108728</v>
       </c>
       <c r="C15">
-        <v>0.2755495711257652</v>
+        <v>0.11824826242119</v>
       </c>
       <c r="D15">
-        <v>0.5669487554010288</v>
+        <v>0.6305245704468234</v>
       </c>
       <c r="E15">
-        <v>0.185322639465447</v>
+        <v>0.2287556068893153</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.00353993405443</v>
+        <v>2.316371157387664</v>
       </c>
       <c r="H15">
-        <v>1.170521278515565</v>
+        <v>1.862095153379073</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06639093952999531</v>
+        <v>0.09890647959333165</v>
       </c>
       <c r="K15">
-        <v>2.074732253962821</v>
+        <v>1.03060338153071</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7335420124905454</v>
+        <v>0.5198650621249854</v>
       </c>
       <c r="N15">
-        <v>1.644792483724004</v>
+        <v>3.091549928147543</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.818601398146399</v>
+        <v>0.9727257184949281</v>
       </c>
       <c r="C16">
-        <v>0.2568371335980544</v>
+        <v>0.1138525179194403</v>
       </c>
       <c r="D16">
-        <v>0.5380550331454401</v>
+        <v>0.6254042677363714</v>
       </c>
       <c r="E16">
-        <v>0.1765145917730067</v>
+        <v>0.2273259418478517</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.925289345491279</v>
+        <v>2.303079639955456</v>
       </c>
       <c r="H16">
-        <v>1.139522096293035</v>
+        <v>1.859263382685015</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06374035894157259</v>
+        <v>0.09857378924619553</v>
       </c>
       <c r="K16">
-        <v>1.937485203032651</v>
+        <v>0.9980996389267318</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6880903786042367</v>
+        <v>0.5100528244382474</v>
       </c>
       <c r="N16">
-        <v>1.657428657102002</v>
+        <v>3.098758656570283</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.741092435787152</v>
+        <v>0.9542921944590432</v>
       </c>
       <c r="C17">
-        <v>0.2454722475613664</v>
+        <v>0.1111713699565655</v>
       </c>
       <c r="D17">
-        <v>0.5205941274582244</v>
+        <v>0.622338438721016</v>
       </c>
       <c r="E17">
-        <v>0.1711992678495093</v>
+        <v>0.226475149151419</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.878449663839689</v>
+        <v>2.295199269670576</v>
       </c>
       <c r="H17">
-        <v>1.121103949528163</v>
+        <v>1.857707362603634</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06214648093748565</v>
+        <v>0.09838007927160675</v>
       </c>
       <c r="K17">
-        <v>1.854107005419507</v>
+        <v>0.9782958611746437</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6605283668874549</v>
+        <v>0.5041034023136959</v>
       </c>
       <c r="N17">
-        <v>1.665873502177206</v>
+        <v>3.103390720214136</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.696770974134154</v>
+        <v>0.9437383703397586</v>
       </c>
       <c r="C18">
-        <v>0.2389744724341796</v>
+        <v>0.1096349303681592</v>
       </c>
       <c r="D18">
-        <v>0.510642964283079</v>
+        <v>0.6206027396089837</v>
       </c>
       <c r="E18">
-        <v>0.1681727026075706</v>
+        <v>0.2259954487281988</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.851914329295198</v>
+        <v>2.290767113673013</v>
       </c>
       <c r="H18">
-        <v>1.110720156786243</v>
+        <v>1.856878956402994</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06124095147595199</v>
+        <v>0.09827247947579565</v>
       </c>
       <c r="K18">
-        <v>1.806430213781056</v>
+        <v>0.9669552999104951</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6447860421171185</v>
+        <v>0.5007072021140502</v>
       </c>
       <c r="N18">
-        <v>1.670976023969047</v>
+        <v>3.10613197919804</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.681807371006244</v>
+        <v>0.9401733832886521</v>
       </c>
       <c r="C19">
-        <v>0.2367808532728191</v>
+        <v>0.109115693925375</v>
       </c>
       <c r="D19">
-        <v>0.507288968012432</v>
+        <v>0.620019817368501</v>
       </c>
       <c r="E19">
-        <v>0.167153069647668</v>
+        <v>0.2258346885569296</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.842997540380765</v>
+        <v>2.289283700188577</v>
       </c>
       <c r="H19">
-        <v>1.107239486370418</v>
+        <v>1.85660990603219</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06093622861316916</v>
+        <v>0.09823670368465187</v>
       </c>
       <c r="K19">
-        <v>1.790333898414701</v>
+        <v>0.9631241755250244</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6394742837137883</v>
+        <v>0.4995617297297201</v>
       </c>
       <c r="N19">
-        <v>1.672744917033071</v>
+        <v>3.10707334467007</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.749316114363381</v>
+        <v>0.9562494394526482</v>
       </c>
       <c r="C20">
-        <v>0.2466779539572173</v>
+        <v>0.1114561940516978</v>
       </c>
       <c r="D20">
-        <v>0.5224432442098248</v>
+        <v>0.6226619363850716</v>
       </c>
       <c r="E20">
-        <v>0.1717618813402098</v>
+        <v>0.2265647184888664</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.883393358034709</v>
+        <v>2.296027752669204</v>
       </c>
       <c r="H20">
-        <v>1.123042650519153</v>
+        <v>1.857866113123237</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06231497696732191</v>
+        <v>0.09840030499392327</v>
       </c>
       <c r="K20">
-        <v>1.862953310304874</v>
+        <v>0.9803988271185347</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6634507796171647</v>
+        <v>0.5047340634335313</v>
       </c>
       <c r="N20">
-        <v>1.664948943408731</v>
+        <v>3.102889656623674</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.979370348070404</v>
+        <v>1.010844028309293</v>
       </c>
       <c r="C21">
-        <v>0.2804188150965103</v>
+        <v>0.119387957132858</v>
       </c>
       <c r="D21">
-        <v>0.5744947923159316</v>
+        <v>0.6318698086012091</v>
       </c>
       <c r="E21">
-        <v>0.1876254048749999</v>
+        <v>0.2291328351176816</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.024121653412635</v>
+        <v>2.319887419234135</v>
       </c>
       <c r="H21">
-        <v>1.178718471983956</v>
+        <v>1.862882280851466</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06708571570817412</v>
+        <v>0.0989955837256602</v>
       </c>
       <c r="K21">
-        <v>2.110437239610548</v>
+        <v>1.039037330747163</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7453822552508527</v>
+        <v>0.5224200511531052</v>
       </c>
       <c r="N21">
-        <v>1.641752272296614</v>
+        <v>3.089753670361219</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.132447462623645</v>
+        <v>1.046957882728236</v>
       </c>
       <c r="C22">
-        <v>0.302886208499757</v>
+        <v>0.1246226686279783</v>
       </c>
       <c r="D22">
-        <v>0.6094483079154998</v>
+        <v>0.6381340444551995</v>
       </c>
       <c r="E22">
-        <v>0.1983040386728945</v>
+        <v>0.2308971575598306</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.120199571656457</v>
+        <v>2.336377547348803</v>
       </c>
       <c r="H22">
-        <v>1.217199802422101</v>
+        <v>1.866753649467512</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07031672720777493</v>
+        <v>0.09941860918421241</v>
       </c>
       <c r="K22">
-        <v>2.275130883463646</v>
+        <v>1.077806895412493</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8000767530303392</v>
+        <v>0.5342081651219601</v>
       </c>
       <c r="N22">
-        <v>1.628982924763648</v>
+        <v>3.081855692656518</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.050477024065628</v>
+        <v>1.02764361112105</v>
       </c>
       <c r="C23">
-        <v>0.2908533668476139</v>
+        <v>0.1218241416409569</v>
       </c>
       <c r="D23">
-        <v>0.5907014395203589</v>
+        <v>0.6347681698910606</v>
       </c>
       <c r="E23">
-        <v>0.1925742620708135</v>
+        <v>0.2299476469951927</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.06852019626217</v>
+        <v>2.327494322762675</v>
       </c>
       <c r="H23">
-        <v>1.196458408938184</v>
+        <v>1.864633157666475</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06858125858426689</v>
+        <v>0.09918972432955542</v>
       </c>
       <c r="K23">
-        <v>2.186937668748953</v>
+        <v>1.057074035378008</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7707719226144008</v>
+        <v>0.52789564574568</v>
       </c>
       <c r="N23">
-        <v>1.635568738716614</v>
+        <v>3.086008053642715</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.745597447776476</v>
+        <v>0.9553644323874266</v>
       </c>
       <c r="C24">
-        <v>0.2461327425417323</v>
+        <v>0.1113274095443302</v>
       </c>
       <c r="D24">
-        <v>0.5216069877173481</v>
+        <v>0.6225155993409999</v>
       </c>
       <c r="E24">
-        <v>0.1715074329686033</v>
+        <v>0.2265241948130523</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.881157093730081</v>
+        <v>2.295652889087165</v>
       </c>
       <c r="H24">
-        <v>1.122165527542563</v>
+        <v>1.857794135880596</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06223876637462666</v>
+        <v>0.09839114921208036</v>
       </c>
       <c r="K24">
-        <v>1.858953095725866</v>
+        <v>0.9794479363781363</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6621292363599025</v>
+        <v>0.5044488661558404</v>
       </c>
       <c r="N24">
-        <v>1.665366167833653</v>
+        <v>3.103115943795217</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.426468221384994</v>
+        <v>0.8792594459962402</v>
       </c>
       <c r="C25">
-        <v>0.1993538719887198</v>
+        <v>0.1002221983102345</v>
       </c>
       <c r="D25">
-        <v>0.4505355518107024</v>
+        <v>0.610357703736554</v>
       </c>
       <c r="E25">
-        <v>0.1499381734023153</v>
+        <v>0.2232005157281307</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.694332713836474</v>
+        <v>2.265144732987352</v>
       </c>
       <c r="H25">
-        <v>1.049945809654645</v>
+        <v>1.85296231501087</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05582045699873817</v>
+        <v>0.09767569479890881</v>
       </c>
       <c r="K25">
-        <v>1.515665720413466</v>
+        <v>0.8976286037482168</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5490931283531069</v>
+        <v>0.4801421001474395</v>
       </c>
       <c r="N25">
-        <v>1.706788835657676</v>
+        <v>3.124513427504994</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8248090811753457</v>
+        <v>1.19788370100153</v>
       </c>
       <c r="C2">
-        <v>0.09222904531060294</v>
+        <v>0.1658404083246126</v>
       </c>
       <c r="D2">
-        <v>0.6023143795840156</v>
+        <v>0.4006212643789979</v>
       </c>
       <c r="E2">
-        <v>0.2210701825694592</v>
+        <v>0.1348690725786525</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.24596308711395</v>
+        <v>1.567581876754787</v>
       </c>
       <c r="H2">
-        <v>1.851590425611818</v>
+        <v>1.002514085145378</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09727428764839274</v>
+        <v>0.05139624823624089</v>
       </c>
       <c r="K2">
-        <v>0.8390136468571825</v>
+        <v>1.269751139809244</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4630868607519787</v>
+        <v>0.4686565591740504</v>
       </c>
       <c r="N2">
-        <v>3.14279530747082</v>
+        <v>1.744313018622663</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7888906297424683</v>
+        <v>1.046081795544268</v>
       </c>
       <c r="C3">
-        <v>0.08692505512055959</v>
+        <v>0.1435655551034358</v>
       </c>
       <c r="D3">
-        <v>0.5974294126951918</v>
+        <v>0.368054145603125</v>
       </c>
       <c r="E3">
-        <v>0.219823925188237</v>
+        <v>0.1250835890781339</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.235001473922424</v>
+        <v>1.487397512379161</v>
       </c>
       <c r="H3">
-        <v>1.852022955089581</v>
+        <v>0.9734834832712522</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09708042309165421</v>
+        <v>0.04855862047312343</v>
       </c>
       <c r="K3">
-        <v>0.8002981807567267</v>
+        <v>1.106403422363115</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4520514118177417</v>
+        <v>0.4155418105434592</v>
       </c>
       <c r="N3">
-        <v>3.156759161169077</v>
+        <v>1.773706212951964</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7673202049531653</v>
+        <v>0.9541503120030939</v>
       </c>
       <c r="C4">
-        <v>0.08372375661473086</v>
+        <v>0.1300624829128481</v>
       </c>
       <c r="D4">
-        <v>0.5947091942661018</v>
+        <v>0.3486061368198676</v>
       </c>
       <c r="E4">
-        <v>0.2191561229042556</v>
+        <v>0.1192621765704551</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.229273739233989</v>
+        <v>1.440678342949127</v>
       </c>
       <c r="H4">
-        <v>1.852960293360496</v>
+        <v>0.9570555217843548</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0969999517352349</v>
+        <v>0.04688742483607911</v>
       </c>
       <c r="K4">
-        <v>0.7770224838922672</v>
+        <v>1.007455559546884</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4455331783601011</v>
+        <v>0.3835166569966475</v>
       </c>
       <c r="N4">
-        <v>3.1661087164007</v>
+        <v>1.793583664227285</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7586517362495897</v>
+        <v>0.9169729443995607</v>
       </c>
       <c r="C5">
-        <v>0.08243309940745291</v>
+        <v>0.1245978668802508</v>
       </c>
       <c r="D5">
-        <v>0.5936709262928872</v>
+        <v>0.3408087979310324</v>
       </c>
       <c r="E5">
-        <v>0.2189084952945279</v>
+        <v>0.1169336695841139</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.227191559659417</v>
+        <v>1.422230349084884</v>
       </c>
       <c r="H5">
-        <v>1.853511218592416</v>
+        <v>0.9506931833725787</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09697686078394341</v>
+        <v>0.04622316949056327</v>
       </c>
       <c r="K5">
-        <v>0.7676621016074705</v>
+        <v>0.9674338391756407</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4429417314888369</v>
+        <v>0.3706000018597706</v>
       </c>
       <c r="N5">
-        <v>3.170113684542102</v>
+        <v>1.802126763291497</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7572196924949992</v>
+        <v>0.9108159239084443</v>
       </c>
       <c r="C6">
-        <v>0.08221962542366157</v>
+        <v>0.1236926071058377</v>
       </c>
       <c r="D6">
-        <v>0.5935027665145611</v>
+        <v>0.3395214994032898</v>
       </c>
       <c r="E6">
-        <v>0.2188688575220574</v>
+        <v>0.116549575513524</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.226861024053377</v>
+        <v>1.419201564730102</v>
       </c>
       <c r="H6">
-        <v>1.853612904622949</v>
+        <v>0.9496562512087081</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09697361266424664</v>
+        <v>0.04611385212817254</v>
       </c>
       <c r="K6">
-        <v>0.7661153459194168</v>
+        <v>0.9608053193293813</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4425153371788468</v>
+        <v>0.3684628969912751</v>
       </c>
       <c r="N6">
-        <v>3.170790477830892</v>
+        <v>1.803571604200016</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7672028063269636</v>
+        <v>0.9536478141744169</v>
       </c>
       <c r="C7">
-        <v>0.08370629412242181</v>
+        <v>0.129988638599869</v>
       </c>
       <c r="D7">
-        <v>0.5946949073506431</v>
+        <v>0.3485004741360882</v>
       </c>
       <c r="E7">
-        <v>0.2191526840634594</v>
+        <v>0.1192306004275743</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.229244638531256</v>
+        <v>1.440427209417905</v>
       </c>
       <c r="H7">
-        <v>1.852967039215685</v>
+        <v>0.9569683963448057</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09699960103359118</v>
+        <v>0.04687839997122722</v>
       </c>
       <c r="K7">
-        <v>0.7768957417956415</v>
+        <v>1.006914645883882</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4454979668613248</v>
+        <v>0.3833419341820417</v>
       </c>
       <c r="N7">
-        <v>3.166161939617325</v>
+        <v>1.793697108223768</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8123240251895822</v>
+        <v>1.145255672231343</v>
       </c>
       <c r="C8">
-        <v>0.09038871909768886</v>
+        <v>0.1581204083120724</v>
       </c>
       <c r="D8">
-        <v>0.6005721236624879</v>
+        <v>0.3892720813199304</v>
       </c>
       <c r="E8">
-        <v>0.2206202640341921</v>
+        <v>0.1314542271127586</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.241975257125063</v>
+        <v>1.53938639561953</v>
       </c>
       <c r="H8">
-        <v>1.851600152045535</v>
+        <v>0.992202500464316</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09719944222349142</v>
+        <v>0.05040237936751879</v>
       </c>
       <c r="K8">
-        <v>0.8255616391593037</v>
+        <v>1.213124860167227</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4592283825195693</v>
+        <v>0.4502119968801708</v>
       </c>
       <c r="N8">
-        <v>3.147448984695117</v>
+        <v>1.754057231197208</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.904648414329813</v>
+        <v>1.532850708312651</v>
       </c>
       <c r="C9">
-        <v>0.1039342887381878</v>
+        <v>0.2149466672320557</v>
       </c>
       <c r="D9">
-        <v>0.6143118865900306</v>
+        <v>0.4740658388558643</v>
       </c>
       <c r="E9">
-        <v>0.2242708501548769</v>
+        <v>0.1570662985696885</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.274910492132193</v>
+        <v>1.755439944873189</v>
       </c>
       <c r="H9">
-        <v>1.854250203133745</v>
+        <v>1.073314224097658</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09789721374634297</v>
+        <v>0.05793172565833871</v>
       </c>
       <c r="K9">
-        <v>0.9249356161263051</v>
+        <v>1.630102437689231</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4881988294656523</v>
+        <v>0.5866870223489613</v>
       </c>
       <c r="N9">
-        <v>3.116912788947857</v>
+        <v>1.69168441188387</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9748357038790516</v>
+        <v>1.827482225914792</v>
       </c>
       <c r="C10">
-        <v>0.1141592267229612</v>
+        <v>0.2581394528745591</v>
       </c>
       <c r="D10">
-        <v>0.6257578509213033</v>
+        <v>0.5400602730359196</v>
       </c>
       <c r="E10">
-        <v>0.2274243310565325</v>
+        <v>0.1771253854368808</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.303992460288754</v>
+        <v>1.930690633953191</v>
       </c>
       <c r="H10">
-        <v>1.859449957115402</v>
+        <v>1.141652898512518</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0985964100751815</v>
+        <v>0.06392379518899816</v>
       </c>
       <c r="K10">
-        <v>1.000366170190716</v>
+        <v>1.947038666406314</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5107351840836856</v>
+        <v>0.6912509113113643</v>
       </c>
       <c r="N10">
-        <v>3.098240546544105</v>
+        <v>1.656498945710098</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.007281128661219</v>
+        <v>1.964311171978238</v>
       </c>
       <c r="C11">
-        <v>0.1188710298177114</v>
+        <v>0.278209346431737</v>
       </c>
       <c r="D11">
-        <v>0.6312587898213167</v>
+        <v>0.5710693514288323</v>
       </c>
       <c r="E11">
-        <v>0.2289614167843013</v>
+        <v>0.1865799701338844</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.318289131044395</v>
+        <v>2.014771543915487</v>
       </c>
       <c r="H11">
-        <v>1.862522679469919</v>
+        <v>1.174992412699538</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09895502998585215</v>
+        <v>0.0667702037621396</v>
       </c>
       <c r="K11">
-        <v>1.035211651675269</v>
+        <v>2.0942362217599</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5212606592985622</v>
+        <v>0.7400089936431229</v>
       </c>
       <c r="N11">
-        <v>3.090564834501862</v>
+        <v>1.643119426758943</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.019641817419995</v>
+        <v>2.016587100089168</v>
       </c>
       <c r="C12">
-        <v>0.1206640080509942</v>
+        <v>0.285879799060865</v>
       </c>
       <c r="D12">
-        <v>0.6333841438814716</v>
+        <v>0.5829706514106192</v>
       </c>
       <c r="E12">
-        <v>0.2295582172367361</v>
+        <v>0.1902130542531282</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.323856742591659</v>
+        <v>2.047308687786995</v>
       </c>
       <c r="H12">
-        <v>1.863787989451055</v>
+        <v>1.187973611937736</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09909666079370538</v>
+        <v>0.06786729965225646</v>
       </c>
       <c r="K12">
-        <v>1.048483378021899</v>
+        <v>2.150476580062303</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5252857672907538</v>
+        <v>0.7586673392300654</v>
       </c>
       <c r="N12">
-        <v>3.087776082418458</v>
+        <v>1.638460344522429</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.016976417153046</v>
+        <v>2.005307000888365</v>
       </c>
       <c r="C13">
-        <v>0.1202774697480606</v>
+        <v>0.2842245301784772</v>
       </c>
       <c r="D13">
-        <v>0.6329245313640968</v>
+        <v>0.5804001444320761</v>
       </c>
       <c r="E13">
-        <v>0.2294290301511595</v>
+        <v>0.1894281621907794</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.322650813599381</v>
+        <v>2.040269005693091</v>
       </c>
       <c r="H13">
-        <v>1.863510957119985</v>
+        <v>1.185161482765153</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09906589883981098</v>
+        <v>0.06763013349156921</v>
       </c>
       <c r="K13">
-        <v>1.0456216713863</v>
+        <v>2.138340872067602</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5244171386464274</v>
+        <v>0.7546398731704613</v>
       </c>
       <c r="N13">
-        <v>3.08837144453112</v>
+        <v>1.639445133057933</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.008296560743929</v>
+        <v>1.968602329540602</v>
       </c>
       <c r="C14">
-        <v>0.1190183642594889</v>
+        <v>0.2788389278430259</v>
       </c>
       <c r="D14">
-        <v>0.6314327970054308</v>
+        <v>0.5720451932744481</v>
       </c>
       <c r="E14">
-        <v>0.2290102205561269</v>
+        <v>0.1868777741173773</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.318744098115644</v>
+        <v>2.01743398410926</v>
       </c>
       <c r="H14">
-        <v>1.862624738179733</v>
+        <v>1.17605304664454</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09896656522251135</v>
+        <v>0.06686006579605674</v>
       </c>
       <c r="K14">
-        <v>1.0363019912254</v>
+        <v>2.098852734993471</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5215910189414572</v>
+        <v>0.7415399822801163</v>
       </c>
       <c r="N14">
-        <v>3.090333038721212</v>
+        <v>1.642727773976333</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.002989575108728</v>
+        <v>1.946181651191608</v>
       </c>
       <c r="C15">
-        <v>0.11824826242119</v>
+        <v>0.2755495711253673</v>
       </c>
       <c r="D15">
-        <v>0.6305245704468234</v>
+        <v>0.5669487554010004</v>
       </c>
       <c r="E15">
-        <v>0.2287556068893153</v>
+        <v>0.1853226394654612</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.316371157387664</v>
+        <v>2.003539934054487</v>
       </c>
       <c r="H15">
-        <v>1.862095153379073</v>
+        <v>1.170521278515537</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09890647959333165</v>
+        <v>0.06639093953005215</v>
       </c>
       <c r="K15">
-        <v>1.03060338153071</v>
+        <v>2.074732253962793</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5198650621249854</v>
+        <v>0.7335420124905525</v>
       </c>
       <c r="N15">
-        <v>3.091549928147543</v>
+        <v>1.64479248372399</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9727257184949281</v>
+        <v>1.818601398146484</v>
       </c>
       <c r="C16">
-        <v>0.1138525179194403</v>
+        <v>0.2568371335983386</v>
       </c>
       <c r="D16">
-        <v>0.6254042677363714</v>
+        <v>0.5380550331454401</v>
       </c>
       <c r="E16">
-        <v>0.2273259418478517</v>
+        <v>0.1765145917730351</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.303079639955456</v>
+        <v>1.925289345491251</v>
       </c>
       <c r="H16">
-        <v>1.859263382685015</v>
+        <v>1.139522096292922</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09857378924619553</v>
+        <v>0.06374035894151575</v>
       </c>
       <c r="K16">
-        <v>0.9980996389267318</v>
+        <v>1.937485203032679</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5100528244382474</v>
+        <v>0.6880903786042367</v>
       </c>
       <c r="N16">
-        <v>3.098758656570283</v>
+        <v>1.65742865710196</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9542921944590432</v>
+        <v>1.741092435787124</v>
       </c>
       <c r="C17">
-        <v>0.1111713699565655</v>
+        <v>0.2454722475614801</v>
       </c>
       <c r="D17">
-        <v>0.622338438721016</v>
+        <v>0.5205941274582528</v>
       </c>
       <c r="E17">
-        <v>0.226475149151419</v>
+        <v>0.1711992678495093</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.295199269670576</v>
+        <v>1.878449663839689</v>
       </c>
       <c r="H17">
-        <v>1.857707362603634</v>
+        <v>1.121103949528276</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09838007927160675</v>
+        <v>0.06214648093744302</v>
       </c>
       <c r="K17">
-        <v>0.9782958611746437</v>
+        <v>1.854107005419564</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5041034023136959</v>
+        <v>0.660528366887462</v>
       </c>
       <c r="N17">
-        <v>3.103390720214136</v>
+        <v>1.66587350217722</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9437383703397586</v>
+        <v>1.696770974134267</v>
       </c>
       <c r="C18">
-        <v>0.1096349303681592</v>
+        <v>0.2389744724340943</v>
       </c>
       <c r="D18">
-        <v>0.6206027396089837</v>
+        <v>0.5106429642831074</v>
       </c>
       <c r="E18">
-        <v>0.2259954487281988</v>
+        <v>0.168172702607599</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.290767113673013</v>
+        <v>1.85191432929517</v>
       </c>
       <c r="H18">
-        <v>1.856878956402994</v>
+        <v>1.110720156786243</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09827247947579565</v>
+        <v>0.06124095147598041</v>
       </c>
       <c r="K18">
-        <v>0.9669552999104951</v>
+        <v>1.806430213781056</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5007072021140502</v>
+        <v>0.6447860421171185</v>
       </c>
       <c r="N18">
-        <v>3.10613197919804</v>
+        <v>1.670976023969047</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9401733832886521</v>
+        <v>1.681807371006158</v>
       </c>
       <c r="C19">
-        <v>0.109115693925375</v>
+        <v>0.2367808532727764</v>
       </c>
       <c r="D19">
-        <v>0.620019817368501</v>
+        <v>0.507288968012432</v>
       </c>
       <c r="E19">
-        <v>0.2258346885569296</v>
+        <v>0.1671530696476466</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.289283700188577</v>
+        <v>1.842997540380821</v>
       </c>
       <c r="H19">
-        <v>1.85660990603219</v>
+        <v>1.107239486370418</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09823670368465187</v>
+        <v>0.06093622861310877</v>
       </c>
       <c r="K19">
-        <v>0.9631241755250244</v>
+        <v>1.790333898414701</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4995617297297201</v>
+        <v>0.6394742837137954</v>
       </c>
       <c r="N19">
-        <v>3.10707334467007</v>
+        <v>1.672744917033086</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9562494394526482</v>
+        <v>1.749316114363268</v>
       </c>
       <c r="C20">
-        <v>0.1114561940516978</v>
+        <v>0.2466779539572457</v>
       </c>
       <c r="D20">
-        <v>0.6226619363850716</v>
+        <v>0.5224432442099669</v>
       </c>
       <c r="E20">
-        <v>0.2265647184888664</v>
+        <v>0.1717618813402524</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.296027752669204</v>
+        <v>1.883393358034681</v>
       </c>
       <c r="H20">
-        <v>1.857866113123237</v>
+        <v>1.123042650518983</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09840030499392327</v>
+        <v>0.06231497696729349</v>
       </c>
       <c r="K20">
-        <v>0.9803988271185347</v>
+        <v>1.862953310304789</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5047340634335313</v>
+        <v>0.6634507796171789</v>
       </c>
       <c r="N20">
-        <v>3.102889656623674</v>
+        <v>1.664948943408703</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.010844028309293</v>
+        <v>1.979370348070404</v>
       </c>
       <c r="C21">
-        <v>0.119387957132858</v>
+        <v>0.2804188150967093</v>
       </c>
       <c r="D21">
-        <v>0.6318698086012091</v>
+        <v>0.574494792316159</v>
       </c>
       <c r="E21">
-        <v>0.2291328351176816</v>
+        <v>0.1876254048749857</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.319887419234135</v>
+        <v>2.024121653412664</v>
       </c>
       <c r="H21">
-        <v>1.862882280851466</v>
+        <v>1.178718471983956</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0989955837256602</v>
+        <v>0.06708571570815991</v>
       </c>
       <c r="K21">
-        <v>1.039037330747163</v>
+        <v>2.110437239610604</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5224200511531052</v>
+        <v>0.7453822552508527</v>
       </c>
       <c r="N21">
-        <v>3.089753670361219</v>
+        <v>1.641752272296671</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.046957882728236</v>
+        <v>2.132447462623645</v>
       </c>
       <c r="C22">
-        <v>0.1246226686279783</v>
+        <v>0.3028862084996717</v>
       </c>
       <c r="D22">
-        <v>0.6381340444551995</v>
+        <v>0.6094483079153861</v>
       </c>
       <c r="E22">
-        <v>0.2308971575598306</v>
+        <v>0.1983040386728803</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.336377547348803</v>
+        <v>2.120199571656457</v>
       </c>
       <c r="H22">
-        <v>1.866753649467512</v>
+        <v>1.217199802422073</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09941860918421241</v>
+        <v>0.07031672720775362</v>
       </c>
       <c r="K22">
-        <v>1.077806895412493</v>
+        <v>2.27513088346376</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5342081651219601</v>
+        <v>0.8000767530303463</v>
       </c>
       <c r="N22">
-        <v>3.081855692656518</v>
+        <v>1.628982924763577</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02764361112105</v>
+        <v>2.050477024065572</v>
       </c>
       <c r="C23">
-        <v>0.1218241416409569</v>
+        <v>0.2908533668475854</v>
       </c>
       <c r="D23">
-        <v>0.6347681698910606</v>
+        <v>0.5907014395203873</v>
       </c>
       <c r="E23">
-        <v>0.2299476469951927</v>
+        <v>0.1925742620708206</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.327494322762675</v>
+        <v>2.068520196262142</v>
       </c>
       <c r="H23">
-        <v>1.864633157666475</v>
+        <v>1.196458408938184</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09918972432955542</v>
+        <v>0.06858125858429531</v>
       </c>
       <c r="K23">
-        <v>1.057074035378008</v>
+        <v>2.186937668748897</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.52789564574568</v>
+        <v>0.7707719226144079</v>
       </c>
       <c r="N23">
-        <v>3.086008053642715</v>
+        <v>1.635568738716657</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9553644323874266</v>
+        <v>1.745597447776305</v>
       </c>
       <c r="C24">
-        <v>0.1113274095443302</v>
+        <v>0.2461327425414339</v>
       </c>
       <c r="D24">
-        <v>0.6225155993409999</v>
+        <v>0.5216069877172629</v>
       </c>
       <c r="E24">
-        <v>0.2265241948130523</v>
+        <v>0.1715074329686104</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.295652889087165</v>
+        <v>1.881157093729996</v>
       </c>
       <c r="H24">
-        <v>1.857794135880596</v>
+        <v>1.122165527542563</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09839114921208036</v>
+        <v>0.06223876637446324</v>
       </c>
       <c r="K24">
-        <v>0.9794479363781363</v>
+        <v>1.858953095725923</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5044488661558404</v>
+        <v>0.6621292363599167</v>
       </c>
       <c r="N24">
-        <v>3.103115943795217</v>
+        <v>1.665366167833668</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8792594459962402</v>
+        <v>1.426468221385193</v>
       </c>
       <c r="C25">
-        <v>0.1002221983102345</v>
+        <v>0.1993538719888477</v>
       </c>
       <c r="D25">
-        <v>0.610357703736554</v>
+        <v>0.4505355518105887</v>
       </c>
       <c r="E25">
-        <v>0.2232005157281307</v>
+        <v>0.1499381734023402</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.265144732987352</v>
+        <v>1.694332713836417</v>
       </c>
       <c r="H25">
-        <v>1.85296231501087</v>
+        <v>1.049945809654531</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09767569479890881</v>
+        <v>0.05582045699873106</v>
       </c>
       <c r="K25">
-        <v>0.8976286037482168</v>
+        <v>1.515665720413438</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4801421001474395</v>
+        <v>0.549093128353114</v>
       </c>
       <c r="N25">
-        <v>3.124513427504994</v>
+        <v>1.706788835657647</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.19788370100153</v>
+        <v>2.640058980824733</v>
       </c>
       <c r="C2">
-        <v>0.1658404083246126</v>
+        <v>0.6271956170768362</v>
       </c>
       <c r="D2">
-        <v>0.4006212643789979</v>
+        <v>0.1988244681043483</v>
       </c>
       <c r="E2">
-        <v>0.1348690725786525</v>
+        <v>0.06959555773557402</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.567581876754787</v>
+        <v>0.3374708776184505</v>
       </c>
       <c r="H2">
-        <v>1.002514085145378</v>
+        <v>0.001009767996237532</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0006373434170483527</v>
       </c>
       <c r="J2">
-        <v>0.05139624823624089</v>
+        <v>0.2857618432342761</v>
       </c>
       <c r="K2">
-        <v>1.269751139809244</v>
+        <v>0.270861178988131</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4686565591740504</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.744313018622663</v>
+        <v>0.1768488684360321</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4409660641897659</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.262563209424371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.046081795544268</v>
+        <v>2.301413019527956</v>
       </c>
       <c r="C3">
-        <v>0.1435655551034358</v>
+        <v>0.56934238669362</v>
       </c>
       <c r="D3">
-        <v>0.368054145603125</v>
+        <v>0.1726614428282573</v>
       </c>
       <c r="E3">
-        <v>0.1250835890781339</v>
+        <v>0.06814464894490946</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.487397512379161</v>
+        <v>0.3205270785855419</v>
       </c>
       <c r="H3">
-        <v>0.9734834832712522</v>
+        <v>0.001948389044660104</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001144328011489115</v>
       </c>
       <c r="J3">
-        <v>0.04855862047312343</v>
+        <v>0.2828396482684212</v>
       </c>
       <c r="K3">
-        <v>1.106403422363115</v>
+        <v>0.2782688409189564</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4155418105434592</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.773706212951964</v>
+        <v>0.15910817431525</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3846472674811352</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.220197976953074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9541503120030939</v>
+        <v>2.093086551353394</v>
       </c>
       <c r="C4">
-        <v>0.1300624829128481</v>
+        <v>0.5339821671466041</v>
       </c>
       <c r="D4">
-        <v>0.3486061368198676</v>
+        <v>0.1567144462987642</v>
       </c>
       <c r="E4">
-        <v>0.1192621765704551</v>
+        <v>0.06722993544663269</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.440678342949127</v>
+        <v>0.3105912084054907</v>
       </c>
       <c r="H4">
-        <v>0.9570555217843548</v>
+        <v>0.00270340125951507</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001669324259893301</v>
       </c>
       <c r="J4">
-        <v>0.04688742483607911</v>
+        <v>0.2813678038430751</v>
       </c>
       <c r="K4">
-        <v>1.007455559546884</v>
+        <v>0.2831677317815444</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3835166569966475</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.793583664227285</v>
+        <v>0.1482353377702452</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3500407289207672</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.19584311336753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9169729443995607</v>
+        <v>2.008033479231756</v>
       </c>
       <c r="C5">
-        <v>0.1245978668802508</v>
+        <v>0.5203601819956418</v>
       </c>
       <c r="D5">
-        <v>0.3408087979310324</v>
+        <v>0.1502411848397713</v>
       </c>
       <c r="E5">
-        <v>0.1169336695841139</v>
+        <v>0.06683781124673538</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.422230349084884</v>
+        <v>0.3061619369872233</v>
       </c>
       <c r="H5">
-        <v>0.9506931833725787</v>
+        <v>0.003055722235646985</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002006210366420902</v>
       </c>
       <c r="J5">
-        <v>0.04622316949056327</v>
+        <v>0.280589019476011</v>
       </c>
       <c r="K5">
-        <v>0.9674338391756407</v>
+        <v>0.2849209260062935</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3706000018597706</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.802126763291497</v>
+        <v>0.1438624208307502</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3359657984130422</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.184734897775883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9108159239084443</v>
+        <v>1.993844471737702</v>
       </c>
       <c r="C6">
-        <v>0.1236926071058377</v>
+        <v>0.519023720180229</v>
       </c>
       <c r="D6">
-        <v>0.3395214994032898</v>
+        <v>0.1491668446786321</v>
       </c>
       <c r="E6">
-        <v>0.116549575513524</v>
+        <v>0.06675653725111652</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.419201564730102</v>
+        <v>0.3048331152517179</v>
       </c>
       <c r="H6">
-        <v>0.9496562512087081</v>
+        <v>0.003119076541307275</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002160380230171732</v>
       </c>
       <c r="J6">
-        <v>0.04611385212817254</v>
+        <v>0.2801502781486249</v>
       </c>
       <c r="K6">
-        <v>0.9608053193293813</v>
+        <v>0.284816818472974</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3684628969912751</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.803571604200016</v>
+        <v>0.1432029345597456</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3336726747555829</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.180984398815298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9536478141744169</v>
+        <v>2.091777215600132</v>
       </c>
       <c r="C7">
-        <v>0.129988638599869</v>
+        <v>0.5363296720589688</v>
       </c>
       <c r="D7">
-        <v>0.3485004741360882</v>
+        <v>0.1566243784837837</v>
       </c>
       <c r="E7">
-        <v>0.1192306004275743</v>
+        <v>0.0671824492337304</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.440427209417905</v>
+        <v>0.3088925842146324</v>
       </c>
       <c r="H7">
-        <v>0.9569683963448057</v>
+        <v>0.00271372838808831</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001917830829627931</v>
       </c>
       <c r="J7">
-        <v>0.04687839997122722</v>
+        <v>0.2805004409579226</v>
       </c>
       <c r="K7">
-        <v>1.006914645883882</v>
+        <v>0.2821006611843657</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3833419341820417</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.793697108223768</v>
+        <v>0.1483585944381574</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3499728178054866</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.190424600829033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.145255672231343</v>
+        <v>2.523148034056476</v>
       </c>
       <c r="C8">
-        <v>0.1581204083120724</v>
+        <v>0.6106065287314095</v>
       </c>
       <c r="D8">
-        <v>0.3892720813199304</v>
+        <v>0.1897729511770194</v>
       </c>
       <c r="E8">
-        <v>0.1314542271127586</v>
+        <v>0.06904811290736745</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.53938639561953</v>
+        <v>0.3293617650119742</v>
       </c>
       <c r="H8">
-        <v>0.992202500464316</v>
+        <v>0.001299860948501097</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00105739945455241</v>
       </c>
       <c r="J8">
-        <v>0.05040237936751879</v>
+        <v>0.2835584952353969</v>
       </c>
       <c r="K8">
-        <v>1.213124860167227</v>
+        <v>0.2719153712910973</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4502119968801708</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.754057231197208</v>
+        <v>0.1709714572541756</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4217128275570303</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.240648039500996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.532850708312651</v>
+        <v>3.366774850396666</v>
       </c>
       <c r="C9">
-        <v>0.2149466672320557</v>
+        <v>0.7532178003817762</v>
       </c>
       <c r="D9">
-        <v>0.4740658388558643</v>
+        <v>0.2558779333052712</v>
       </c>
       <c r="E9">
-        <v>0.1570662985696885</v>
+        <v>0.07260282871069124</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.755439944873189</v>
+        <v>0.3764795529387186</v>
       </c>
       <c r="H9">
-        <v>1.073314224097658</v>
+        <v>4.284971521339997E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0008266138357351238</v>
       </c>
       <c r="J9">
-        <v>0.05793172565833871</v>
+        <v>0.2937824488141558</v>
       </c>
       <c r="K9">
-        <v>1.630102437689231</v>
+        <v>0.2567888104049914</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5866870223489613</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.69168441188387</v>
+        <v>0.2152095978342246</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5620809969991072</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.362708978879311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.827482225914792</v>
+        <v>3.991251929408406</v>
       </c>
       <c r="C10">
-        <v>0.2581394528745591</v>
+        <v>0.8703749963228233</v>
       </c>
       <c r="D10">
-        <v>0.5400602730359196</v>
+        <v>0.3053295277090484</v>
       </c>
       <c r="E10">
-        <v>0.1771253854368808</v>
+        <v>0.07509357443008913</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.930690633953191</v>
+        <v>0.4053038917617897</v>
       </c>
       <c r="H10">
-        <v>1.141652898512518</v>
+        <v>0.0003513962664527526</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002049147787926309</v>
       </c>
       <c r="J10">
-        <v>0.06392379518899816</v>
+        <v>0.2986668664900947</v>
       </c>
       <c r="K10">
-        <v>1.947038666406314</v>
+        <v>0.2425015620587381</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6912509113113643</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.656498945710098</v>
+        <v>0.2364675028794068</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6581650120480234</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.434564287799731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.964311171978238</v>
+        <v>4.323952576768818</v>
       </c>
       <c r="C11">
-        <v>0.278209346431737</v>
+        <v>1.019146702318039</v>
       </c>
       <c r="D11">
-        <v>0.5710693514288323</v>
+        <v>0.3278585817853639</v>
       </c>
       <c r="E11">
-        <v>0.1865799701338844</v>
+        <v>0.08323045398728901</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.014771543915487</v>
+        <v>0.3500579474267766</v>
       </c>
       <c r="H11">
-        <v>1.174992412699538</v>
+        <v>0.01892716529471627</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003071945342523641</v>
       </c>
       <c r="J11">
-        <v>0.0667702037621396</v>
+        <v>0.2657635853568365</v>
       </c>
       <c r="K11">
-        <v>2.0942362217599</v>
+        <v>0.1986549899554255</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7400089936431229</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.643119426758943</v>
+        <v>0.1578117483547246</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6396046339332884</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.248791059888788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.016587100089168</v>
+        <v>4.475266586547718</v>
       </c>
       <c r="C12">
-        <v>0.285879799060865</v>
+        <v>1.123656411131577</v>
       </c>
       <c r="D12">
-        <v>0.5829706514106192</v>
+        <v>0.3363570109107457</v>
       </c>
       <c r="E12">
-        <v>0.1902130542531282</v>
+        <v>0.09922694613370453</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.047308687786995</v>
+        <v>0.3024813367666468</v>
       </c>
       <c r="H12">
-        <v>1.187973611937736</v>
+        <v>0.05755988789948674</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003221872885846189</v>
       </c>
       <c r="J12">
-        <v>0.06786729965225646</v>
+        <v>0.2393594637987491</v>
       </c>
       <c r="K12">
-        <v>2.150476580062303</v>
+        <v>0.1709730857964384</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7586673392300654</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.638460344522429</v>
+        <v>0.102717500231897</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6036572885473177</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.092741991803933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.005307000888365</v>
+        <v>4.493943533787331</v>
       </c>
       <c r="C13">
-        <v>0.2842245301784772</v>
+        <v>1.20299621883666</v>
       </c>
       <c r="D13">
-        <v>0.5804001444320761</v>
+        <v>0.3343790478763395</v>
       </c>
       <c r="E13">
-        <v>0.1894281621907794</v>
+        <v>0.1217393190696647</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.040269005693091</v>
+        <v>0.2553112742944776</v>
       </c>
       <c r="H13">
-        <v>1.185161482765153</v>
+        <v>0.1132197593287856</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003003553757100264</v>
       </c>
       <c r="J13">
-        <v>0.06763013349156921</v>
+        <v>0.2149631491985673</v>
       </c>
       <c r="K13">
-        <v>2.138340872067602</v>
+        <v>0.1521253750511029</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7546398731704613</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.639445133057933</v>
+        <v>0.06293590998878074</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5527147592353927</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9416541849689111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.968602329540602</v>
+        <v>4.446753713565556</v>
       </c>
       <c r="C14">
-        <v>0.2788389278430259</v>
+        <v>1.248420388067132</v>
       </c>
       <c r="D14">
-        <v>0.5720451932744481</v>
+        <v>0.3282488164933994</v>
       </c>
       <c r="E14">
-        <v>0.1868777741173773</v>
+        <v>0.1415057606040904</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.01743398410926</v>
+        <v>0.2227107002135966</v>
       </c>
       <c r="H14">
-        <v>1.17605304664454</v>
+        <v>0.1624931853878451</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002776203009524636</v>
       </c>
       <c r="J14">
-        <v>0.06686006579605674</v>
+        <v>0.1988624033298905</v>
       </c>
       <c r="K14">
-        <v>2.098852734993471</v>
+        <v>0.1434021259156859</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7415399822801163</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.642727773976333</v>
+        <v>0.04435243836749159</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5106982088369989</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8387763681533897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.946181651191608</v>
+        <v>4.406493305732113</v>
       </c>
       <c r="C15">
-        <v>0.2755495711253673</v>
+        <v>1.254255071914656</v>
       </c>
       <c r="D15">
-        <v>0.5669487554010004</v>
+        <v>0.3245242574855638</v>
       </c>
       <c r="E15">
-        <v>0.1853226394654612</v>
+        <v>0.1464674250416103</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.003539934054487</v>
+        <v>0.2141059460400214</v>
       </c>
       <c r="H15">
-        <v>1.170521278515537</v>
+        <v>0.1749704329366892</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002756589285016098</v>
       </c>
       <c r="J15">
-        <v>0.06639093953005215</v>
+        <v>0.195001407826652</v>
       </c>
       <c r="K15">
-        <v>2.074732253962793</v>
+        <v>0.142384528771375</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7335420124905525</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.64479248372399</v>
+        <v>0.04103923858205505</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4973832534774729</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8124139933103152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.818601398146484</v>
+        <v>4.131360163251543</v>
       </c>
       <c r="C16">
-        <v>0.2568371335983386</v>
+        <v>1.186072318027556</v>
       </c>
       <c r="D16">
-        <v>0.5380550331454401</v>
+        <v>0.3033457909146193</v>
       </c>
       <c r="E16">
-        <v>0.1765145917730351</v>
+        <v>0.1399581510584476</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.925289345491251</v>
+        <v>0.2103891158446345</v>
       </c>
       <c r="H16">
-        <v>1.139522096292922</v>
+        <v>0.1620909328937046</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002268853201136345</v>
       </c>
       <c r="J16">
-        <v>0.06374035894151575</v>
+        <v>0.1972034415623867</v>
       </c>
       <c r="K16">
-        <v>1.937485203032679</v>
+        <v>0.1511472289491067</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6880903786042367</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.65742865710196</v>
+        <v>0.04114774599980286</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4678736484125352</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8089215616388827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.741092435787124</v>
+        <v>3.946076885053799</v>
       </c>
       <c r="C17">
-        <v>0.2454722475614801</v>
+        <v>1.109781466782664</v>
       </c>
       <c r="D17">
-        <v>0.5205941274582528</v>
+        <v>0.2904508125273111</v>
       </c>
       <c r="E17">
-        <v>0.1711992678495093</v>
+        <v>0.1237975049224254</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.878449663839689</v>
+        <v>0.2246031863410707</v>
       </c>
       <c r="H17">
-        <v>1.121103949528276</v>
+        <v>0.1242660124722477</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.00207642158436272</v>
       </c>
       <c r="J17">
-        <v>0.06214648093744302</v>
+        <v>0.2073746679585682</v>
       </c>
       <c r="K17">
-        <v>1.854107005419564</v>
+        <v>0.1622048099838196</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.660528366887462</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.66587350217722</v>
+        <v>0.04950303284197588</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4673065979937618</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8602090146946892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.696770974134267</v>
+        <v>3.817442163627391</v>
       </c>
       <c r="C18">
-        <v>0.2389744724340943</v>
+        <v>1.018270518458479</v>
       </c>
       <c r="D18">
-        <v>0.5106429642831074</v>
+        <v>0.2831129291280661</v>
       </c>
       <c r="E18">
-        <v>0.168172702607599</v>
+        <v>0.1018529426220098</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.85191432929517</v>
+        <v>0.2583105011745204</v>
       </c>
       <c r="H18">
-        <v>1.110720156786243</v>
+        <v>0.07144106318770582</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001775148860419407</v>
       </c>
       <c r="J18">
-        <v>0.06124095147598041</v>
+        <v>0.2267147161440519</v>
       </c>
       <c r="K18">
-        <v>1.806430213781056</v>
+        <v>0.1792493383866294</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6447860421171185</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.670976023969047</v>
+        <v>0.07384806543545608</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4918152486259189</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9720760009460889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.681807371006158</v>
+        <v>3.74394064848434</v>
       </c>
       <c r="C19">
-        <v>0.2367808532727764</v>
+        <v>0.9317107784856091</v>
       </c>
       <c r="D19">
-        <v>0.507288968012432</v>
+        <v>0.2807214227129293</v>
       </c>
       <c r="E19">
-        <v>0.1671530696476466</v>
+        <v>0.08367079997683824</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.842997540380821</v>
+        <v>0.3053365766608209</v>
       </c>
       <c r="H19">
-        <v>1.107239486370418</v>
+        <v>0.02620917995445637</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001914134752316166</v>
       </c>
       <c r="J19">
-        <v>0.06093622861310877</v>
+        <v>0.2518575223842134</v>
       </c>
       <c r="K19">
-        <v>1.790333898414701</v>
+        <v>0.2024043958312909</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6394742837137954</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.672744917033086</v>
+        <v>0.1215178842958551</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5357745439587234</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.124381336812391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.749316114363268</v>
+        <v>3.826957758827916</v>
       </c>
       <c r="C20">
-        <v>0.2466779539572457</v>
+        <v>0.8482120876992099</v>
       </c>
       <c r="D20">
-        <v>0.5224432442099669</v>
+        <v>0.2922585489587703</v>
       </c>
       <c r="E20">
-        <v>0.1717618813402524</v>
+        <v>0.07434551752072327</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.883393358034681</v>
+        <v>0.3921418245068651</v>
       </c>
       <c r="H20">
-        <v>1.123042650518983</v>
+        <v>0.0001759726177885668</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002375260158602011</v>
       </c>
       <c r="J20">
-        <v>0.06231497696729349</v>
+        <v>0.2944745609048738</v>
       </c>
       <c r="K20">
-        <v>1.862953310304789</v>
+        <v>0.2427067701520862</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6634507796171789</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.664948943408703</v>
+        <v>0.2309637689721882</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6330127792295315</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.397750067773103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.979370348070404</v>
+        <v>4.297845527971049</v>
       </c>
       <c r="C21">
-        <v>0.2804188150967093</v>
+        <v>0.9219243866742488</v>
       </c>
       <c r="D21">
-        <v>0.574494792316159</v>
+        <v>0.3306044966946757</v>
       </c>
       <c r="E21">
-        <v>0.1876254048749857</v>
+        <v>0.07630107486666438</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.024121653412664</v>
+        <v>0.4287279180466328</v>
       </c>
       <c r="H21">
-        <v>1.178718471983956</v>
+        <v>0.0005715144553155582</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003648222338875406</v>
       </c>
       <c r="J21">
-        <v>0.06708571570815991</v>
+        <v>0.3057526010175735</v>
       </c>
       <c r="K21">
-        <v>2.110437239610604</v>
+        <v>0.2403343721766582</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7453822552508527</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.641752272296671</v>
+        <v>0.2651735779560624</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7179074399518584</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.499311753553741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.132447462623645</v>
+        <v>4.608784454129761</v>
       </c>
       <c r="C22">
-        <v>0.3028862084996717</v>
+        <v>0.9719757234437907</v>
       </c>
       <c r="D22">
-        <v>0.6094483079153861</v>
+        <v>0.3559050203126191</v>
       </c>
       <c r="E22">
-        <v>0.1983040386728803</v>
+        <v>0.07760210041415405</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.120199571656457</v>
+        <v>0.4514101740747378</v>
       </c>
       <c r="H22">
-        <v>1.217199802422073</v>
+        <v>0.001144554195036229</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004472230658653764</v>
       </c>
       <c r="J22">
-        <v>0.07031672720775362</v>
+        <v>0.312544129703312</v>
       </c>
       <c r="K22">
-        <v>2.27513088346376</v>
+        <v>0.2381953559674912</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8000767530303463</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.628982924763577</v>
+        <v>0.2814539729000813</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7696451177737842</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.561862294494006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.050477024065572</v>
+        <v>4.443023866043404</v>
       </c>
       <c r="C23">
-        <v>0.2908533668475854</v>
+        <v>0.9420693864094858</v>
       </c>
       <c r="D23">
-        <v>0.5907014395203873</v>
+        <v>0.3423829423115734</v>
       </c>
       <c r="E23">
-        <v>0.1925742620708206</v>
+        <v>0.07694437533735043</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.068520196262142</v>
+        <v>0.4411486338592141</v>
       </c>
       <c r="H23">
-        <v>1.196458408938184</v>
+        <v>0.0008178712829479684</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003722911539500551</v>
       </c>
       <c r="J23">
-        <v>0.06858125858429531</v>
+        <v>0.3098643591903567</v>
       </c>
       <c r="K23">
-        <v>2.186937668748897</v>
+        <v>0.2405088405176556</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7707719226144079</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.635568738716657</v>
+        <v>0.2725303011849149</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7418794558412998</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.534366715565056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.745597447776305</v>
+        <v>3.815289088689326</v>
       </c>
       <c r="C24">
-        <v>0.2461327425414339</v>
+        <v>0.8344827576865441</v>
       </c>
       <c r="D24">
-        <v>0.5216069877172629</v>
+        <v>0.2916625850113093</v>
       </c>
       <c r="E24">
-        <v>0.1715074329686104</v>
+        <v>0.07438703956816961</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.881157093729996</v>
+        <v>0.4007647579972229</v>
       </c>
       <c r="H24">
-        <v>1.122165527542563</v>
+        <v>6.930254356296572E-05</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001909542121763863</v>
       </c>
       <c r="J24">
-        <v>0.06223876637446324</v>
+        <v>0.2990323358964559</v>
       </c>
       <c r="K24">
-        <v>1.858953095725923</v>
+        <v>0.2482794505157173</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6621292363599167</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.665366167833668</v>
+        <v>0.2392410993586083</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6371153569970431</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.425565955254143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.426468221385193</v>
+        <v>3.138426862969254</v>
       </c>
       <c r="C25">
-        <v>0.1993538719888477</v>
+        <v>0.7191572966439708</v>
       </c>
       <c r="D25">
-        <v>0.4505355518105887</v>
+        <v>0.2378465349933805</v>
       </c>
       <c r="E25">
-        <v>0.1499381734023402</v>
+        <v>0.07159329104077483</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.694332713836417</v>
+        <v>0.3603020247592497</v>
       </c>
       <c r="H25">
-        <v>1.049945809654531</v>
+        <v>0.0002073811655549651</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001086074483088062</v>
       </c>
       <c r="J25">
-        <v>0.05582045699873106</v>
+        <v>0.2891788199745804</v>
       </c>
       <c r="K25">
-        <v>1.515665720413438</v>
+        <v>0.2586377274402629</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.549093128353114</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.706788835657647</v>
+        <v>0.2035479223363907</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.5243204780061888</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.318574680013626</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.640058980824733</v>
+        <v>2.64403388557389</v>
       </c>
       <c r="C2">
-        <v>0.6271956170768362</v>
+        <v>0.6403257177587136</v>
       </c>
       <c r="D2">
-        <v>0.1988244681043483</v>
+        <v>0.1989357997988179</v>
       </c>
       <c r="E2">
-        <v>0.06959555773557402</v>
+        <v>0.0676718719796594</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3374708776184505</v>
+        <v>0.2961841140773487</v>
       </c>
       <c r="H2">
-        <v>0.001009767996237532</v>
+        <v>0.0007927742524030945</v>
       </c>
       <c r="I2">
-        <v>0.0006373434170483527</v>
+        <v>0.0005976191813692466</v>
       </c>
       <c r="J2">
-        <v>0.2857618432342761</v>
+        <v>0.3115098836070942</v>
       </c>
       <c r="K2">
-        <v>0.270861178988131</v>
+        <v>0.2490221074378436</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1341367171280901</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06104156066074218</v>
       </c>
       <c r="N2">
-        <v>0.1768488684360321</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4409660641897659</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1825271775194963</v>
       </c>
       <c r="Q2">
-        <v>1.262563209424371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4430275418471226</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.18685875113799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.301413019527956</v>
+        <v>2.306272130628543</v>
       </c>
       <c r="C3">
-        <v>0.56934238669362</v>
+        <v>0.5735180061757887</v>
       </c>
       <c r="D3">
-        <v>0.1726614428282573</v>
+        <v>0.1728046308140847</v>
       </c>
       <c r="E3">
-        <v>0.06814464894490946</v>
+        <v>0.06640381957195873</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3205270785855419</v>
+        <v>0.2830741360635756</v>
       </c>
       <c r="H3">
-        <v>0.001948389044660104</v>
+        <v>0.001571633793606808</v>
       </c>
       <c r="I3">
-        <v>0.001144328011489115</v>
+        <v>0.0008840717585667512</v>
       </c>
       <c r="J3">
-        <v>0.2828396482684212</v>
+        <v>0.3079978092151023</v>
       </c>
       <c r="K3">
-        <v>0.2782688409189564</v>
+        <v>0.2575640847160816</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1399913156642878</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0628060795979728</v>
       </c>
       <c r="N3">
-        <v>0.15910817431525</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3846472674811352</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1646286580696028</v>
       </c>
       <c r="Q3">
-        <v>1.220197976953074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3863228364688212</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.155069736836921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.093086551353394</v>
+        <v>2.098395130344556</v>
       </c>
       <c r="C4">
-        <v>0.5339821671466041</v>
+        <v>0.5328364469243638</v>
       </c>
       <c r="D4">
-        <v>0.1567144462987642</v>
+        <v>0.1568702490396419</v>
       </c>
       <c r="E4">
-        <v>0.06722993544663269</v>
+        <v>0.0656074847359982</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3105912084054907</v>
+        <v>0.2754746512454744</v>
       </c>
       <c r="H4">
-        <v>0.00270340125951507</v>
+        <v>0.002203658655134888</v>
       </c>
       <c r="I4">
-        <v>0.001669324259893301</v>
+        <v>0.001239433259611289</v>
       </c>
       <c r="J4">
-        <v>0.2813678038430751</v>
+        <v>0.3059539215708469</v>
       </c>
       <c r="K4">
-        <v>0.2831677317815444</v>
+        <v>0.2630823529621669</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1437632192197764</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06442831964107576</v>
       </c>
       <c r="N4">
-        <v>0.1482353377702452</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3500407289207672</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1536729462875357</v>
       </c>
       <c r="Q4">
-        <v>1.19584311336753</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3514701881778208</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.136779747834922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.008033479231756</v>
+        <v>2.013504114598447</v>
       </c>
       <c r="C5">
-        <v>0.5203601819956418</v>
+        <v>0.5170969403721131</v>
       </c>
       <c r="D5">
-        <v>0.1502411848397713</v>
+        <v>0.1504006368796524</v>
       </c>
       <c r="E5">
-        <v>0.06683781124673538</v>
+        <v>0.06526759051208653</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3061619369872233</v>
+        <v>0.2720266560163296</v>
       </c>
       <c r="H5">
-        <v>0.003055722235646985</v>
+        <v>0.002499693386618262</v>
       </c>
       <c r="I5">
-        <v>0.002006210366420902</v>
+        <v>0.001511375626627398</v>
       </c>
       <c r="J5">
-        <v>0.280589019476011</v>
+        <v>0.3048966824358956</v>
       </c>
       <c r="K5">
-        <v>0.2849209260062935</v>
+        <v>0.2650997817534844</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1451819731988664</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06516127392601767</v>
       </c>
       <c r="N5">
-        <v>0.1438624208307502</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3359657984130422</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1492682549130961</v>
       </c>
       <c r="Q5">
-        <v>1.184734897775883</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3372919832256613</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.128129642400069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.993844471737702</v>
+        <v>1.999340705854479</v>
       </c>
       <c r="C6">
-        <v>0.519023720180229</v>
+        <v>0.5154199258482492</v>
       </c>
       <c r="D6">
-        <v>0.1491668446786321</v>
+        <v>0.1493268544020196</v>
       </c>
       <c r="E6">
-        <v>0.06675653725111652</v>
+        <v>0.06519804730842993</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3048331152517179</v>
+        <v>0.2709024611086903</v>
       </c>
       <c r="H6">
-        <v>0.003119076541307275</v>
+        <v>0.002553081145359959</v>
       </c>
       <c r="I6">
-        <v>0.002160380230171732</v>
+        <v>0.00167086167441699</v>
       </c>
       <c r="J6">
-        <v>0.2801502781486249</v>
+        <v>0.3044156350734397</v>
       </c>
       <c r="K6">
-        <v>0.284816818472974</v>
+        <v>0.2650762146045871</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1452225687227457</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06521494113962678</v>
       </c>
       <c r="N6">
-        <v>0.1432029345597456</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3336726747555829</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1486016446636498</v>
       </c>
       <c r="Q6">
-        <v>1.180984398815298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3349802659949219</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.124893189010109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.091777215600132</v>
+        <v>2.097072628943465</v>
       </c>
       <c r="C7">
-        <v>0.5363296720589688</v>
+        <v>0.5347260761679706</v>
       </c>
       <c r="D7">
-        <v>0.1566243784837837</v>
+        <v>0.1567779693316567</v>
       </c>
       <c r="E7">
-        <v>0.0671824492337304</v>
+        <v>0.06555082028111436</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3088925842146324</v>
+        <v>0.2763170439018339</v>
       </c>
       <c r="H7">
-        <v>0.00271372838808831</v>
+        <v>0.00221544669240159</v>
       </c>
       <c r="I7">
-        <v>0.001917830829627931</v>
+        <v>0.001532170686414425</v>
       </c>
       <c r="J7">
-        <v>0.2805004409579226</v>
+        <v>0.3011143462247077</v>
       </c>
       <c r="K7">
-        <v>0.2821006611843657</v>
+        <v>0.2617690158003061</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1430701267670447</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06413674883752662</v>
       </c>
       <c r="N7">
-        <v>0.1483585944381574</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3499728178054866</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1537492929389046</v>
       </c>
       <c r="Q7">
-        <v>1.190424600829033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3513774647685608</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.12881280919764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.523148034056476</v>
+        <v>2.527395283625708</v>
       </c>
       <c r="C8">
-        <v>0.6106065287314095</v>
+        <v>0.6191395928132408</v>
       </c>
       <c r="D8">
-        <v>0.1897729511770194</v>
+        <v>0.1898880345053158</v>
       </c>
       <c r="E8">
-        <v>0.06904811290736745</v>
+        <v>0.06714139040138578</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3293617650119742</v>
+        <v>0.2976391991749949</v>
       </c>
       <c r="H8">
-        <v>0.001299860948501097</v>
+        <v>0.001038550852832554</v>
       </c>
       <c r="I8">
-        <v>0.00105739945455241</v>
+        <v>0.001006210630934312</v>
       </c>
       <c r="J8">
-        <v>0.2835584952353969</v>
+        <v>0.2962087510113065</v>
       </c>
       <c r="K8">
-        <v>0.2719153712910973</v>
+        <v>0.249496089065568</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1349621696094019</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0608680572759317</v>
       </c>
       <c r="N8">
-        <v>0.1709714572541756</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4217128275570303</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1764509460521424</v>
       </c>
       <c r="Q8">
-        <v>1.240648039500996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4235706528307546</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.159588963350274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.366774850396666</v>
+        <v>3.368154928822378</v>
       </c>
       <c r="C9">
-        <v>0.7532178003817762</v>
+        <v>0.7846090632287428</v>
       </c>
       <c r="D9">
-        <v>0.2558779333052712</v>
+        <v>0.2558590387798745</v>
       </c>
       <c r="E9">
-        <v>0.07260282871069124</v>
+        <v>0.07025074905924455</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3764795529387186</v>
+        <v>0.3372502362172582</v>
       </c>
       <c r="H9">
-        <v>4.284971521339997E-05</v>
+        <v>2.338170345927981E-05</v>
       </c>
       <c r="I9">
-        <v>0.0008266138357351238</v>
+        <v>0.001056937757770271</v>
       </c>
       <c r="J9">
-        <v>0.2937824488141558</v>
+        <v>0.3030874406193007</v>
       </c>
       <c r="K9">
-        <v>0.2567888104049914</v>
+        <v>0.2307070499678865</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.121965577862948</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05958387241916085</v>
       </c>
       <c r="N9">
-        <v>0.2152095978342246</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5620809969991072</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2211237024484234</v>
       </c>
       <c r="Q9">
-        <v>1.362708978879311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5648126381449288</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.249804571052721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.991251929408406</v>
+        <v>3.989806546843852</v>
       </c>
       <c r="C10">
-        <v>0.8703749963228233</v>
+        <v>0.9157886906168642</v>
       </c>
       <c r="D10">
-        <v>0.3053295277090484</v>
+        <v>0.3051365446965093</v>
       </c>
       <c r="E10">
-        <v>0.07509357443008913</v>
+        <v>0.07256954962424711</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4053038917617897</v>
+        <v>0.3762905213655756</v>
       </c>
       <c r="H10">
-        <v>0.0003513962664527526</v>
+        <v>0.0003542741970621321</v>
       </c>
       <c r="I10">
-        <v>0.002049147787926309</v>
+        <v>0.002285193693674081</v>
       </c>
       <c r="J10">
-        <v>0.2986668664900947</v>
+        <v>0.283899020583334</v>
       </c>
       <c r="K10">
-        <v>0.2425015620587381</v>
+        <v>0.2126745272253991</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1112907446876292</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05902112043729346</v>
       </c>
       <c r="N10">
-        <v>0.2364675028794068</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6581650120480234</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2422726941516942</v>
       </c>
       <c r="Q10">
-        <v>1.434564287799731</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.661237459399338</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.283842736759937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.323952576768818</v>
+        <v>4.32169695575692</v>
       </c>
       <c r="C11">
-        <v>1.019146702318039</v>
+        <v>1.056752920338397</v>
       </c>
       <c r="D11">
-        <v>0.3278585817853639</v>
+        <v>0.3275581472976796</v>
       </c>
       <c r="E11">
-        <v>0.08323045398728901</v>
+        <v>0.08192345392814815</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3500579474267766</v>
+        <v>0.35855449414899</v>
       </c>
       <c r="H11">
-        <v>0.01892716529471627</v>
+        <v>0.01891116023695005</v>
       </c>
       <c r="I11">
-        <v>0.003071945342523641</v>
+        <v>0.003340453374105046</v>
       </c>
       <c r="J11">
-        <v>0.2657635853568365</v>
+        <v>0.2203176529958384</v>
       </c>
       <c r="K11">
-        <v>0.1986549899554255</v>
+        <v>0.17440410753332</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09691145961846992</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04602255533767341</v>
       </c>
       <c r="N11">
-        <v>0.1578117483547246</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6396046339332884</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1613577400589392</v>
       </c>
       <c r="Q11">
-        <v>1.248791059888788</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6418806985304499</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.092162461643682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.475266586547718</v>
+        <v>4.473027833450828</v>
       </c>
       <c r="C12">
-        <v>1.123656411131577</v>
+        <v>1.151220073111887</v>
       </c>
       <c r="D12">
-        <v>0.3363570109107457</v>
+        <v>0.3360179472818885</v>
       </c>
       <c r="E12">
-        <v>0.09922694613370453</v>
+        <v>0.09845743122618522</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3024813367666468</v>
+        <v>0.3288665721169224</v>
       </c>
       <c r="H12">
-        <v>0.05755988789948674</v>
+        <v>0.057540408835834</v>
       </c>
       <c r="I12">
-        <v>0.003221872885846189</v>
+        <v>0.003460788506312262</v>
       </c>
       <c r="J12">
-        <v>0.2393594637987491</v>
+        <v>0.1895069622210315</v>
       </c>
       <c r="K12">
-        <v>0.1709730857964384</v>
+        <v>0.1527331113901695</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08982300702543888</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03736760804244987</v>
       </c>
       <c r="N12">
-        <v>0.102717500231897</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6036572885473177</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1048778787251834</v>
       </c>
       <c r="Q12">
-        <v>1.092741991803933</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6053099646054818</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9490066941109632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.493943533787331</v>
+        <v>4.492452892397694</v>
       </c>
       <c r="C13">
-        <v>1.20299621883666</v>
+        <v>1.220047013703777</v>
       </c>
       <c r="D13">
-        <v>0.3343790478763395</v>
+        <v>0.334067139785617</v>
       </c>
       <c r="E13">
-        <v>0.1217393190696647</v>
+        <v>0.1211766641136443</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.2553112742944776</v>
+        <v>0.2810306680425469</v>
       </c>
       <c r="H13">
-        <v>0.1132197593287856</v>
+        <v>0.1132086431409789</v>
       </c>
       <c r="I13">
-        <v>0.003003553757100264</v>
+        <v>0.003257578633091285</v>
       </c>
       <c r="J13">
-        <v>0.2149631491985673</v>
+        <v>0.1789616557876172</v>
       </c>
       <c r="K13">
-        <v>0.1521253750511029</v>
+        <v>0.1402993615342378</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08632091833295918</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0312907490038361</v>
       </c>
       <c r="N13">
-        <v>0.06293590998878074</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5527147592353927</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.06428229865835888</v>
       </c>
       <c r="Q13">
-        <v>0.9416541849689111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5538789599881966</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8294879657723158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.446753713565556</v>
+        <v>4.446101372349972</v>
       </c>
       <c r="C14">
-        <v>1.248420388067132</v>
+        <v>1.257822542638849</v>
       </c>
       <c r="D14">
-        <v>0.3282488164933994</v>
+        <v>0.3279839766948953</v>
       </c>
       <c r="E14">
-        <v>0.1415057606040904</v>
+        <v>0.1409132802647406</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2227107002135966</v>
+        <v>0.2411580235049939</v>
       </c>
       <c r="H14">
-        <v>0.1624931853878451</v>
+        <v>0.1624892310492356</v>
       </c>
       <c r="I14">
-        <v>0.002776203009524636</v>
+        <v>0.003072173127120159</v>
       </c>
       <c r="J14">
-        <v>0.1988624033298905</v>
+        <v>0.1783587389738557</v>
       </c>
       <c r="K14">
-        <v>0.1434021259156859</v>
+        <v>0.1355840268315056</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08517944152389545</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02838016595934256</v>
       </c>
       <c r="N14">
-        <v>0.04435243836749159</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5106982088369989</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.04538539388256702</v>
       </c>
       <c r="Q14">
-        <v>0.8387763681533897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5115722338624593</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7547386312483297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.406493305732113</v>
+        <v>4.406195901112994</v>
       </c>
       <c r="C15">
-        <v>1.254255071914656</v>
+        <v>1.261888826117229</v>
       </c>
       <c r="D15">
-        <v>0.3245242574855638</v>
+        <v>0.3242839763468339</v>
       </c>
       <c r="E15">
-        <v>0.1464674250416103</v>
+        <v>0.1458758596347565</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2141059460400214</v>
+        <v>0.2281731674360756</v>
       </c>
       <c r="H15">
-        <v>0.1749704329366892</v>
+        <v>0.1749688227258019</v>
       </c>
       <c r="I15">
-        <v>0.002756589285016098</v>
+        <v>0.003092400626615088</v>
       </c>
       <c r="J15">
-        <v>0.195001407826652</v>
+        <v>0.1809439420356611</v>
       </c>
       <c r="K15">
-        <v>0.142384528771375</v>
+        <v>0.13551429119225</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08522174496974473</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.028002155150741</v>
       </c>
       <c r="N15">
-        <v>0.04103923858205505</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4973832534774729</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04205554826759617</v>
       </c>
       <c r="Q15">
-        <v>0.8124139933103152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4982030250123088</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7381855006868534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.131360163251543</v>
+        <v>4.132425470764304</v>
       </c>
       <c r="C16">
-        <v>1.186072318027556</v>
+        <v>1.195003777585669</v>
       </c>
       <c r="D16">
-        <v>0.3033457909146193</v>
+        <v>0.3032212203923734</v>
       </c>
       <c r="E16">
-        <v>0.1399581510584476</v>
+        <v>0.1396877876365892</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2103891158446345</v>
+        <v>0.2030994611693231</v>
       </c>
       <c r="H16">
-        <v>0.1620909328937046</v>
+        <v>0.1620858945623098</v>
       </c>
       <c r="I16">
-        <v>0.002268853201136345</v>
+        <v>0.002681223592027493</v>
       </c>
       <c r="J16">
-        <v>0.1972034415623867</v>
+        <v>0.2083895963421085</v>
       </c>
       <c r="K16">
-        <v>0.1511472289491067</v>
+        <v>0.1447365438280186</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08811772890475389</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03063102983267108</v>
       </c>
       <c r="N16">
-        <v>0.04114774599980286</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4678736484125352</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04255186443116088</v>
       </c>
       <c r="Q16">
-        <v>0.8089215616388827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.46882496751617</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7608910443705952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.946076885053799</v>
+        <v>3.947677620855472</v>
       </c>
       <c r="C17">
-        <v>1.109781466782664</v>
+        <v>1.122826007861534</v>
       </c>
       <c r="D17">
-        <v>0.2904508125273111</v>
+        <v>0.2903807092650368</v>
       </c>
       <c r="E17">
-        <v>0.1237975049224254</v>
+        <v>0.1237212628750619</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.2246031863410707</v>
+        <v>0.2067086782763639</v>
       </c>
       <c r="H17">
-        <v>0.1242660124722477</v>
+        <v>0.1242473108772089</v>
       </c>
       <c r="I17">
-        <v>0.00207642158436272</v>
+        <v>0.002515397528212837</v>
       </c>
       <c r="J17">
-        <v>0.2073746679585682</v>
+        <v>0.2293685775176897</v>
       </c>
       <c r="K17">
-        <v>0.1622048099838196</v>
+        <v>0.1545753183931247</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09149278491026935</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0339424822637433</v>
       </c>
       <c r="N17">
-        <v>0.04950303284197588</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4673065979937618</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0513628080177142</v>
       </c>
       <c r="Q17">
-        <v>0.8602090146946892</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4684855133799743</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8163254978069006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.817442163627391</v>
+        <v>3.819012215451494</v>
       </c>
       <c r="C18">
-        <v>1.018270518458479</v>
+        <v>1.038823694432892</v>
       </c>
       <c r="D18">
-        <v>0.2831129291280661</v>
+        <v>0.2830634512717154</v>
       </c>
       <c r="E18">
-        <v>0.1018529426220098</v>
+        <v>0.1017532454618895</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.2583105011745204</v>
+        <v>0.2320872017515754</v>
       </c>
       <c r="H18">
-        <v>0.07144106318770582</v>
+        <v>0.07141622293524819</v>
       </c>
       <c r="I18">
-        <v>0.001775148860419407</v>
+        <v>0.002171937801985102</v>
       </c>
       <c r="J18">
-        <v>0.2267147161440519</v>
+        <v>0.2517296959868389</v>
       </c>
       <c r="K18">
-        <v>0.1792493383866294</v>
+        <v>0.1685426510719488</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09665178735317514</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0389690279745798</v>
       </c>
       <c r="N18">
-        <v>0.07384806543545608</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4918152486259189</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.07645215125061711</v>
       </c>
       <c r="Q18">
-        <v>0.9720760009460889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4933974233803156</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9176828099360534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.74394064848434</v>
+        <v>3.745052228306918</v>
       </c>
       <c r="C19">
-        <v>0.9317107784856091</v>
+        <v>0.9613435360902258</v>
       </c>
       <c r="D19">
-        <v>0.2807214227129293</v>
+        <v>0.280667436056774</v>
       </c>
       <c r="E19">
-        <v>0.08367079997683824</v>
+        <v>0.08306662836151801</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3053365766608209</v>
+        <v>0.2710764729297708</v>
       </c>
       <c r="H19">
-        <v>0.02620917995445637</v>
+        <v>0.02619297811367716</v>
       </c>
       <c r="I19">
-        <v>0.001914134752316166</v>
+        <v>0.002336043839923363</v>
       </c>
       <c r="J19">
-        <v>0.2518575223842134</v>
+        <v>0.2750404139273996</v>
       </c>
       <c r="K19">
-        <v>0.2024043958312909</v>
+        <v>0.1866882920551216</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1034703783310276</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04576405700679409</v>
       </c>
       <c r="N19">
-        <v>0.1215178842958551</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5357745439587234</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.125273273294475</v>
       </c>
       <c r="Q19">
-        <v>1.124381336812391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5379031257815754</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.048886396999393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.826957758827916</v>
+        <v>3.826403746930282</v>
       </c>
       <c r="C20">
-        <v>0.8482120876992099</v>
+        <v>0.8917989812248663</v>
       </c>
       <c r="D20">
-        <v>0.2922585489587703</v>
+        <v>0.2921303321568871</v>
       </c>
       <c r="E20">
-        <v>0.07434551752072327</v>
+        <v>0.07196896651951379</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3921418245068651</v>
+        <v>0.3519144234371083</v>
       </c>
       <c r="H20">
-        <v>0.0001759726177885668</v>
+        <v>0.0001857507818989745</v>
       </c>
       <c r="I20">
-        <v>0.002375260158602011</v>
+        <v>0.002793770553489949</v>
       </c>
       <c r="J20">
-        <v>0.2944745609048738</v>
+        <v>0.2994037753168612</v>
       </c>
       <c r="K20">
-        <v>0.2427067701520862</v>
+        <v>0.2155746779919063</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.11336151825226</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05835111143122163</v>
       </c>
       <c r="N20">
-        <v>0.2309637689721882</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6330127792295315</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.236912966783791</v>
       </c>
       <c r="Q20">
-        <v>1.397750067773103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6360676514884887</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.268836291569102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.297845527971049</v>
+        <v>4.294311172794778</v>
       </c>
       <c r="C21">
-        <v>0.9219243866742488</v>
+        <v>0.9688857114964833</v>
       </c>
       <c r="D21">
-        <v>0.3306044966946757</v>
+        <v>0.3302418292012277</v>
       </c>
       <c r="E21">
-        <v>0.07630107486666438</v>
+        <v>0.07319060506130182</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4287279180466328</v>
+        <v>0.4441677761180216</v>
       </c>
       <c r="H21">
-        <v>0.0005715144553155582</v>
+        <v>0.0005227321153481457</v>
       </c>
       <c r="I21">
-        <v>0.003648222338875406</v>
+        <v>0.003908239918059664</v>
       </c>
       <c r="J21">
-        <v>0.3057526010175735</v>
+        <v>0.2300973640243384</v>
       </c>
       <c r="K21">
-        <v>0.2403343721766582</v>
+        <v>0.2024888925305461</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1058381727493209</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.05858810938479841</v>
       </c>
       <c r="N21">
-        <v>0.2651735779560624</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7179074399518584</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2706719550279644</v>
       </c>
       <c r="Q21">
-        <v>1.499311753553741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7208878771804095</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.280524665415953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.608784454129761</v>
+        <v>4.60313646196181</v>
       </c>
       <c r="C22">
-        <v>0.9719757234437907</v>
+        <v>1.019943764261996</v>
       </c>
       <c r="D22">
-        <v>0.3559050203126191</v>
+        <v>0.3553649768983007</v>
       </c>
       <c r="E22">
-        <v>0.07760210041415405</v>
+        <v>0.07411838086036626</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4514101740747378</v>
+        <v>0.5116246164597555</v>
       </c>
       <c r="H22">
-        <v>0.001144554195036229</v>
+        <v>0.001007166873966847</v>
       </c>
       <c r="I22">
-        <v>0.004472230658653764</v>
+        <v>0.004491124566135873</v>
       </c>
       <c r="J22">
-        <v>0.312544129703312</v>
+        <v>0.1903083709000555</v>
       </c>
       <c r="K22">
-        <v>0.2381953559674912</v>
+        <v>0.1931949370583474</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1009124671428268</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.05863874065695107</v>
       </c>
       <c r="N22">
-        <v>0.2814539729000813</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7696451177737842</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2864813976324996</v>
       </c>
       <c r="Q22">
-        <v>1.561862294494006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7724643083558647</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.280778150260204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.443023866043404</v>
+        <v>4.43856010311822</v>
       </c>
       <c r="C23">
-        <v>0.9420693864094858</v>
+        <v>0.9906675686086999</v>
       </c>
       <c r="D23">
-        <v>0.3423829423115734</v>
+        <v>0.3419485403552187</v>
       </c>
       <c r="E23">
-        <v>0.07694437533735043</v>
+        <v>0.0736761334978242</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4411486338592141</v>
+        <v>0.4697139746554626</v>
       </c>
       <c r="H23">
-        <v>0.0008178712829479684</v>
+        <v>0.0007349945842219929</v>
       </c>
       <c r="I23">
-        <v>0.003722911539500551</v>
+        <v>0.003819933485484484</v>
       </c>
       <c r="J23">
-        <v>0.3098643591903567</v>
+        <v>0.2178677162716198</v>
       </c>
       <c r="K23">
-        <v>0.2405088405176556</v>
+        <v>0.1998748432050128</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1040609901602085</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05935363316615572</v>
       </c>
       <c r="N23">
-        <v>0.2725303011849149</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7418794558412998</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2779196217796311</v>
       </c>
       <c r="Q23">
-        <v>1.534366715565056</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7448531643923388</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.293225283875614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.815289088689326</v>
+        <v>3.814691126458399</v>
       </c>
       <c r="C24">
-        <v>0.8344827576865441</v>
+        <v>0.8785151705165504</v>
       </c>
       <c r="D24">
-        <v>0.2916625850113093</v>
+        <v>0.2915343283582956</v>
       </c>
       <c r="E24">
-        <v>0.07438703956816961</v>
+        <v>0.0718278384141664</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4007647579972229</v>
+        <v>0.3589803122971205</v>
       </c>
       <c r="H24">
-        <v>6.930254356296572E-05</v>
+        <v>7.99772774556784E-05</v>
       </c>
       <c r="I24">
-        <v>0.001909542121763863</v>
+        <v>0.002227882355788857</v>
       </c>
       <c r="J24">
-        <v>0.2990323358964559</v>
+        <v>0.3040096634744884</v>
       </c>
       <c r="K24">
-        <v>0.2482794505157173</v>
+        <v>0.2200922892292283</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.115043435696407</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06005412306195979</v>
       </c>
       <c r="N24">
-        <v>0.2392410993586083</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6371153569970431</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2453926785527756</v>
       </c>
       <c r="Q24">
-        <v>1.425565955254143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.640240483407716</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.293471951462521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.138426862969254</v>
+        <v>3.140725044375415</v>
       </c>
       <c r="C25">
-        <v>0.7191572966439708</v>
+        <v>0.7449989089433018</v>
       </c>
       <c r="D25">
-        <v>0.2378465349933805</v>
+        <v>0.2378775345910782</v>
       </c>
       <c r="E25">
-        <v>0.07159329104077483</v>
+        <v>0.06940160453147337</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3603020247592497</v>
+        <v>0.3198370869092528</v>
       </c>
       <c r="H25">
-        <v>0.0002073811655549651</v>
+        <v>0.0001461750447824262</v>
       </c>
       <c r="I25">
-        <v>0.001086074483088062</v>
+        <v>0.001359915980414961</v>
       </c>
       <c r="J25">
-        <v>0.2891788199745804</v>
+        <v>0.3051702352910013</v>
       </c>
       <c r="K25">
-        <v>0.2586377274402629</v>
+        <v>0.2343643120265959</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.124849594621633</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05905441768816466</v>
       </c>
       <c r="N25">
-        <v>0.2035479223363907</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5243204780061888</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2093834878813183</v>
       </c>
       <c r="Q25">
-        <v>1.318574680013626</v>
+        <v>0.5268523064899426</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.219522571772117</v>
       </c>
     </row>
   </sheetData>
